--- a/docs/struktuura.xlsx
+++ b/docs/struktuura.xlsx
@@ -3773,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>

--- a/docs/struktuura.xlsx
+++ b/docs/struktuura.xlsx
@@ -3775,7 +3775,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6426,8 +6426,8 @@
       <c r="R54" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S54" s="4" t="s">
-        <v>132</v>
+      <c r="S54" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="T54" s="9" t="s">
         <v>144</v>
@@ -7364,11 +7364,11 @@
       <c r="Q73" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R73" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S73" s="3" t="s">
+      <c r="R73" s="3" t="s">
         <v>359</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T73" s="9" t="s">
         <v>332</v>
@@ -7408,11 +7408,11 @@
       <c r="Q74" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R74" s="3" t="s">
+      <c r="R74" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S74" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="S74" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="T74" s="9" t="s">
         <v>333</v>

--- a/docs/struktuura.xlsx
+++ b/docs/struktuura.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4688" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4658" uniqueCount="520">
   <si>
     <t>&gt; python scripts/struktuura.py dati/analyzed_tezaurs.json</t>
   </si>
@@ -2660,12 +2660,6 @@
     <t>Nav, bet visticamāk drīkstētu: ∀ Sample: ≤ 1</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Strukturāla kļūda vārdnīcā vai datu izgūšanā, manuāli jāpārskata un jāsalabo.</t>
-  </si>
-  <si>
     <t>Šķirkļa nozīmes nianšu bloks.</t>
   </si>
   <si>
@@ -2877,9 +2871,6 @@
   </si>
   <si>
     <t>Savienojumi ir divu tipu: "Stabils savienojums", "Frazeoloģisms".</t>
-  </si>
-  <si>
-    <t>Skaidrota nozīmes nianse? Teorētiski skatā pret nākotni, kur frāzes ir šķirkļi, tas būtu pieļaujams… Bet šī ir viena vienīga vieta. Jāpārskata, kas tur ir noticis, un pagaidām jāatrunā MLVV cilvēki no šāda viena izņēmuma.</t>
   </si>
   <si>
     <t>Derivatives</t>
@@ -3619,11 +3610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y267"/>
+  <dimension ref="A1:Y265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A229" sqref="A229:XFD230"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R142" sqref="R142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3674,10 +3665,10 @@
         <v>107</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>346</v>
@@ -3759,7 +3750,7 @@
         <v>108</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>385</v>
@@ -3791,7 +3782,7 @@
         <v>306</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>385</v>
@@ -3876,7 +3867,7 @@
         <v>145</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>332</v>
@@ -3911,7 +3902,7 @@
         <v>110</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>334</v>
@@ -3961,7 +3952,7 @@
         <v>147</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>333</v>
@@ -4211,7 +4202,7 @@
         <v>383</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>132</v>
@@ -4261,10 +4252,10 @@
         <v>92</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>132</v>
@@ -4308,7 +4299,7 @@
         <v>110</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>335</v>
@@ -4358,7 +4349,7 @@
         <v>175</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>337</v>
@@ -4405,7 +4396,7 @@
         <v>145</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>132</v>
@@ -4452,7 +4443,7 @@
         <v>145</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>338</v>
@@ -4502,7 +4493,7 @@
         <v>110</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>335</v>
@@ -4555,7 +4546,7 @@
         <v>145</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>339</v>
@@ -4697,7 +4688,7 @@
         <v>145</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>341</v>
@@ -4741,7 +4732,7 @@
         <v>110</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>196</v>
@@ -4788,7 +4779,7 @@
         <v>147</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>196</v>
@@ -4879,7 +4870,7 @@
         <v>145</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>132</v>
@@ -4935,7 +4926,7 @@
         <v>145</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>132</v>
@@ -4991,7 +4982,7 @@
         <v>145</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>132</v>
@@ -5047,7 +5038,7 @@
         <v>110</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>335</v>
@@ -5106,7 +5097,7 @@
         <v>175</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>337</v>
@@ -5348,7 +5339,7 @@
         <v>383</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>132</v>
@@ -5407,10 +5398,10 @@
         <v>92</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>132</v>
@@ -5557,7 +5548,7 @@
         <v>145</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>132</v>
@@ -5616,7 +5607,7 @@
         <v>145</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>132</v>
@@ -5733,7 +5724,7 @@
         <v>306</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>410</v>
@@ -5976,7 +5967,7 @@
         <v>383</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R48" s="4" t="s">
         <v>132</v>
@@ -6029,10 +6020,10 @@
         <v>92</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R49" s="4" t="s">
         <v>132</v>
@@ -6079,7 +6070,7 @@
         <v>110</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q50" s="8" t="s">
         <v>297</v>
@@ -6126,7 +6117,7 @@
         <v>175</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>337</v>
@@ -6172,7 +6163,7 @@
         <v>145</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q52" s="4" t="s">
         <v>132</v>
@@ -6222,7 +6213,7 @@
         <v>145</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>338</v>
@@ -6275,7 +6266,7 @@
         <v>110</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>335</v>
@@ -6331,7 +6322,7 @@
         <v>145</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>339</v>
@@ -6434,7 +6425,7 @@
         <v>145</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q57" s="4" t="s">
         <v>132</v>
@@ -6487,7 +6478,7 @@
         <v>145</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q58" s="4" t="s">
         <v>132</v>
@@ -6640,7 +6631,7 @@
         <v>145</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>132</v>
@@ -6696,7 +6687,7 @@
         <v>110</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q62" s="4" t="s">
         <v>301</v>
@@ -6749,7 +6740,7 @@
         <v>147</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q63" s="4" t="s">
         <v>301</v>
@@ -6799,7 +6790,7 @@
         <v>145</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q64" s="4" t="s">
         <v>132</v>
@@ -6931,7 +6922,7 @@
         <v>145</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q67" s="4" t="s">
         <v>132</v>
@@ -6981,7 +6972,7 @@
         <v>145</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="Q68" s="3" t="s">
         <v>353</v>
@@ -7040,7 +7031,7 @@
         <v>354</v>
       </c>
       <c r="T69" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="W69" s="3" t="s">
         <v>377</v>
@@ -7163,7 +7154,7 @@
         <v>145</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q72" s="4" t="s">
         <v>132</v>
@@ -7207,7 +7198,7 @@
         <v>145</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q73" s="4" t="s">
         <v>132</v>
@@ -7254,7 +7245,7 @@
         <v>145</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q74" s="4" t="s">
         <v>132</v>
@@ -7304,7 +7295,7 @@
         <v>145</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q75" s="4" t="s">
         <v>132</v>
@@ -7539,7 +7530,7 @@
         <v>145</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q80" s="4" t="s">
         <v>132</v>
@@ -7595,7 +7586,7 @@
         <v>145</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q81" s="4" t="s">
         <v>132</v>
@@ -7648,7 +7639,7 @@
         <v>110</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q82" s="3" t="s">
         <v>297</v>
@@ -7698,7 +7689,7 @@
         <v>175</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>297</v>
@@ -7934,7 +7925,7 @@
         <v>383</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R87" s="4" t="s">
         <v>132</v>
@@ -7993,10 +7984,10 @@
         <v>92</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R88" s="4" t="s">
         <v>132</v>
@@ -8046,7 +8037,7 @@
         <v>230</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>384</v>
@@ -8061,7 +8052,7 @@
         <v>419</v>
       </c>
       <c r="U89" s="8" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="X89" s="6" t="s">
         <v>402</v>
@@ -8096,7 +8087,7 @@
         <v>145</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Q90" s="3" t="s">
         <v>404</v>
@@ -8123,7 +8114,7 @@
         <v>106</v>
       </c>
       <c r="Y90" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="45" x14ac:dyDescent="0.25">
@@ -8152,7 +8143,7 @@
         <v>145</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q91" s="4" t="s">
         <v>132</v>
@@ -8202,13 +8193,13 @@
         <v>132</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="S92" s="4" t="s">
         <v>132</v>
       </c>
       <c r="T92" s="9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X92" s="6" t="s">
         <v>120</v>
@@ -8337,7 +8328,7 @@
         <v>306</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q95" s="3" t="s">
         <v>412</v>
@@ -8443,7 +8434,7 @@
         <v>145</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q97" s="4" t="s">
         <v>132</v>
@@ -8502,7 +8493,7 @@
         <v>145</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q98" s="3" t="s">
         <v>416</v>
@@ -8766,7 +8757,7 @@
         <v>383</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R102" s="4" t="s">
         <v>132</v>
@@ -8831,10 +8822,10 @@
         <v>92</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R103" s="4" t="s">
         <v>132</v>
@@ -9002,7 +8993,7 @@
         <v>145</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q106" s="4" t="s">
         <v>132</v>
@@ -9064,7 +9055,7 @@
         <v>145</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="Q107" s="3" t="s">
         <v>353</v>
@@ -9135,7 +9126,7 @@
         <v>354</v>
       </c>
       <c r="T108" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="W108" s="3" t="s">
         <v>377</v>
@@ -9294,7 +9285,7 @@
         <v>145</v>
       </c>
       <c r="P111" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q111" s="4" t="s">
         <v>132</v>
@@ -9350,7 +9341,7 @@
         <v>145</v>
       </c>
       <c r="P112" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q112" s="4" t="s">
         <v>132</v>
@@ -9409,7 +9400,7 @@
         <v>145</v>
       </c>
       <c r="P113" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q113" s="4" t="s">
         <v>132</v>
@@ -9471,7 +9462,7 @@
         <v>145</v>
       </c>
       <c r="P114" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q114" s="4" t="s">
         <v>132</v>
@@ -9524,7 +9515,7 @@
         <v>354</v>
       </c>
       <c r="T115" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="X115" s="6" t="s">
         <v>120</v>
@@ -9565,7 +9556,7 @@
         <v>345</v>
       </c>
       <c r="T116" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="X116" s="6" t="s">
         <v>120</v>
@@ -9600,7 +9591,7 @@
         <v>266</v>
       </c>
       <c r="T117" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="X117" s="6" t="s">
         <v>120</v>
@@ -9647,7 +9638,7 @@
         <v>132</v>
       </c>
       <c r="T118" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="U118" s="11" t="s">
         <v>287</v>
@@ -9821,7 +9812,7 @@
         <v>383</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R121" s="4" t="s">
         <v>132</v>
@@ -9880,10 +9871,10 @@
         <v>92</v>
       </c>
       <c r="P122" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R122" s="4" t="s">
         <v>132</v>
@@ -9936,7 +9927,7 @@
         <v>110</v>
       </c>
       <c r="P123" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q123" s="8" t="s">
         <v>297</v>
@@ -9951,7 +9942,7 @@
         <v>288</v>
       </c>
       <c r="U123" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="X123" s="6" t="s">
         <v>290</v>
@@ -9989,7 +9980,7 @@
         <v>175</v>
       </c>
       <c r="P124" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q124" s="3" t="s">
         <v>337</v>
@@ -10041,7 +10032,7 @@
         <v>145</v>
       </c>
       <c r="P125" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q125" s="4" t="s">
         <v>132</v>
@@ -10097,7 +10088,7 @@
         <v>145</v>
       </c>
       <c r="P126" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q126" s="3" t="s">
         <v>338</v>
@@ -10112,7 +10103,7 @@
         <v>144</v>
       </c>
       <c r="U126" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V126" s="8" t="s">
         <v>293</v>
@@ -10156,7 +10147,7 @@
         <v>110</v>
       </c>
       <c r="P127" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q127" s="3" t="s">
         <v>335</v>
@@ -10218,7 +10209,7 @@
         <v>145</v>
       </c>
       <c r="P128" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q128" s="3" t="s">
         <v>339</v>
@@ -10284,13 +10275,13 @@
         <v>132</v>
       </c>
       <c r="T129" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="V129" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="X129" s="13" t="s">
         <v>445</v>
-      </c>
-      <c r="V129" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="X129" s="13" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.25">
@@ -10337,7 +10328,7 @@
         <v>132</v>
       </c>
       <c r="T130" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="U130" s="10"/>
       <c r="V130" s="10" t="s">
@@ -10395,7 +10386,7 @@
         <v>132</v>
       </c>
       <c r="T131" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="V131" s="10"/>
       <c r="X131" s="12" t="s">
@@ -10437,7 +10428,7 @@
         <v>110</v>
       </c>
       <c r="P132" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q132" s="4" t="s">
         <v>132</v>
@@ -10493,7 +10484,7 @@
         <v>147</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q133" s="4" t="s">
         <v>132</v>
@@ -10602,7 +10593,7 @@
         <v>145</v>
       </c>
       <c r="P135" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q135" s="4" t="s">
         <v>132</v>
@@ -10661,7 +10652,7 @@
         <v>145</v>
       </c>
       <c r="P136" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q136" s="4" t="s">
         <v>132</v>
@@ -10723,7 +10714,7 @@
         <v>132</v>
       </c>
       <c r="T137" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="U137" s="11" t="s">
         <v>217</v>
@@ -10832,7 +10823,7 @@
         <v>145</v>
       </c>
       <c r="P139" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q139" s="4" t="s">
         <v>132</v>
@@ -10894,7 +10885,7 @@
         <v>110</v>
       </c>
       <c r="P140" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q140" s="4" t="s">
         <v>301</v>
@@ -10953,7 +10944,7 @@
         <v>147</v>
       </c>
       <c r="P141" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q141" s="4" t="s">
         <v>301</v>
@@ -10965,7 +10956,7 @@
         <v>333</v>
       </c>
       <c r="T141" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="X141" s="12" t="s">
         <v>106</v>
@@ -11009,7 +11000,7 @@
         <v>145</v>
       </c>
       <c r="P142" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q142" s="4" t="s">
         <v>132</v>
@@ -11021,10 +11012,10 @@
         <v>132</v>
       </c>
       <c r="T142" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="X142" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y142" s="3" t="s">
         <v>201</v>
@@ -11068,7 +11059,7 @@
         <v>145</v>
       </c>
       <c r="P143" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q143" s="4" t="s">
         <v>132</v>
@@ -11130,7 +11121,7 @@
         <v>349</v>
       </c>
       <c r="T144" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="X144" s="6" t="s">
         <v>120</v>
@@ -11218,7 +11209,7 @@
         <v>145</v>
       </c>
       <c r="P146" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q146" s="4" t="s">
         <v>132</v>
@@ -11274,7 +11265,7 @@
         <v>145</v>
       </c>
       <c r="P147" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="Q147" s="3" t="s">
         <v>353</v>
@@ -11286,7 +11277,7 @@
         <v>353</v>
       </c>
       <c r="T147" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="U147" s="8" t="s">
         <v>312</v>
@@ -11339,7 +11330,7 @@
         <v>354</v>
       </c>
       <c r="T148" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="W148" s="3" t="s">
         <v>377</v>
@@ -11480,7 +11471,7 @@
         <v>145</v>
       </c>
       <c r="P151" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q151" s="4" t="s">
         <v>132</v>
@@ -11530,7 +11521,7 @@
         <v>145</v>
       </c>
       <c r="P152" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q152" s="4" t="s">
         <v>132</v>
@@ -11639,7 +11630,7 @@
         <v>145</v>
       </c>
       <c r="P154" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q154" s="4" t="s">
         <v>132</v>
@@ -11698,7 +11689,7 @@
         <v>354</v>
       </c>
       <c r="T155" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="U155" s="8" t="s">
         <v>374</v>
@@ -11904,7 +11895,7 @@
         <v>145</v>
       </c>
       <c r="P159" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q159" s="4" t="s">
         <v>132</v>
@@ -11966,7 +11957,7 @@
         <v>145</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q160" s="4" t="s">
         <v>132</v>
@@ -12227,7 +12218,7 @@
         <v>383</v>
       </c>
       <c r="Q164" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R164" s="4" t="s">
         <v>132</v>
@@ -12292,10 +12283,10 @@
         <v>92</v>
       </c>
       <c r="P165" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R165" s="4" t="s">
         <v>132</v>
@@ -12351,7 +12342,7 @@
         <v>230</v>
       </c>
       <c r="P166" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Q166" s="3" t="s">
         <v>384</v>
@@ -12366,7 +12357,7 @@
         <v>419</v>
       </c>
       <c r="U166" s="8" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="X166" s="6" t="s">
         <v>402</v>
@@ -12407,7 +12398,7 @@
         <v>145</v>
       </c>
       <c r="P167" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Q167" s="3" t="s">
         <v>404</v>
@@ -12434,7 +12425,7 @@
         <v>106</v>
       </c>
       <c r="Y167" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="168" spans="1:25" ht="45" x14ac:dyDescent="0.25">
@@ -12469,7 +12460,7 @@
         <v>145</v>
       </c>
       <c r="P168" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q168" s="4" t="s">
         <v>132</v>
@@ -12525,13 +12516,13 @@
         <v>132</v>
       </c>
       <c r="R169" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="S169" s="4" t="s">
         <v>132</v>
       </c>
       <c r="T169" s="9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="X169" s="6" t="s">
         <v>120</v>
@@ -12678,7 +12669,7 @@
         <v>306</v>
       </c>
       <c r="P172" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q172" s="3" t="s">
         <v>412</v>
@@ -12796,7 +12787,7 @@
         <v>145</v>
       </c>
       <c r="P174" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q174" s="4" t="s">
         <v>132</v>
@@ -12861,7 +12852,7 @@
         <v>145</v>
       </c>
       <c r="P175" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q175" s="3" t="s">
         <v>335</v>
@@ -13144,7 +13135,7 @@
         <v>383</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R179" s="4" t="s">
         <v>132</v>
@@ -13215,10 +13206,10 @@
         <v>92</v>
       </c>
       <c r="P180" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q180" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R180" s="4" t="s">
         <v>132</v>
@@ -13404,7 +13395,7 @@
         <v>145</v>
       </c>
       <c r="P183" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q183" s="4" t="s">
         <v>132</v>
@@ -13413,13 +13404,13 @@
         <v>132</v>
       </c>
       <c r="S183" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="T183" s="9" t="s">
         <v>315</v>
       </c>
       <c r="W183" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="X183" s="6" t="s">
         <v>120</v>
@@ -13543,13 +13534,13 @@
         <v>132</v>
       </c>
       <c r="R185" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="S185" s="3" t="s">
         <v>354</v>
       </c>
       <c r="T185" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="W185" s="3"/>
       <c r="X185" s="6" t="s">
@@ -13665,19 +13656,19 @@
         <v>132</v>
       </c>
       <c r="R187" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="S187" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="T187" s="9" t="s">
         <v>425</v>
       </c>
       <c r="V187" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="W187" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="X187" s="13" t="s">
         <v>120</v>
@@ -13730,7 +13721,7 @@
         <v>145</v>
       </c>
       <c r="P188" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q188" s="4" t="s">
         <v>132</v>
@@ -13798,7 +13789,7 @@
         <v>145</v>
       </c>
       <c r="P189" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q189" s="4" t="s">
         <v>132</v>
@@ -13863,7 +13854,7 @@
         <v>145</v>
       </c>
       <c r="P190" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q190" s="4" t="s">
         <v>132</v>
@@ -13931,7 +13922,7 @@
         <v>145</v>
       </c>
       <c r="P191" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q191" s="4" t="s">
         <v>132</v>
@@ -13981,16 +13972,16 @@
         <v>344</v>
       </c>
       <c r="T192" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="U192" s="8" t="s">
         <v>374</v>
       </c>
       <c r="V192" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="W192" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="X192" s="6" t="s">
         <v>120</v>
@@ -14025,7 +14016,7 @@
         <v>380</v>
       </c>
       <c r="T193" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="X193" s="6" t="s">
         <v>120</v>
@@ -14063,16 +14054,16 @@
         <v>384</v>
       </c>
       <c r="T194" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="U194" s="8" t="s">
         <v>388</v>
       </c>
       <c r="V194" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="W194" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="X194" s="6" t="s">
         <v>120</v>
@@ -14139,7 +14130,7 @@
         <v>145</v>
       </c>
       <c r="P196" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q196" s="4" t="s">
         <v>132</v>
@@ -14189,7 +14180,7 @@
         <v>145</v>
       </c>
       <c r="P197" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q197" s="4" t="s">
         <v>132</v>
@@ -14236,7 +14227,7 @@
         <v>110</v>
       </c>
       <c r="P198" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q198" s="3" t="s">
         <v>297</v>
@@ -14280,7 +14271,7 @@
         <v>175</v>
       </c>
       <c r="P199" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q199" s="3" t="s">
         <v>297</v>
@@ -14492,7 +14483,7 @@
         <v>383</v>
       </c>
       <c r="Q203" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R203" s="4" t="s">
         <v>132</v>
@@ -14545,10 +14536,10 @@
         <v>92</v>
       </c>
       <c r="P204" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q204" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R204" s="4" t="s">
         <v>132</v>
@@ -14592,7 +14583,7 @@
         <v>230</v>
       </c>
       <c r="P205" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Q205" s="3" t="s">
         <v>384</v>
@@ -14607,7 +14598,7 @@
         <v>419</v>
       </c>
       <c r="U205" s="8" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="X205" s="6" t="s">
         <v>402</v>
@@ -14636,7 +14627,7 @@
         <v>145</v>
       </c>
       <c r="P206" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Q206" s="3" t="s">
         <v>404</v>
@@ -14663,7 +14654,7 @@
         <v>106</v>
       </c>
       <c r="Y206" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="207" spans="1:25" ht="45" x14ac:dyDescent="0.25">
@@ -14771,7 +14762,7 @@
         <v>306</v>
       </c>
       <c r="P209" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q209" s="3" t="s">
         <v>412</v>
@@ -14865,7 +14856,7 @@
         <v>145</v>
       </c>
       <c r="P211" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q211" s="4" t="s">
         <v>132</v>
@@ -14918,7 +14909,7 @@
         <v>145</v>
       </c>
       <c r="P212" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q212" s="3" t="s">
         <v>335</v>
@@ -15158,7 +15149,7 @@
         <v>383</v>
       </c>
       <c r="Q216" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R216" s="4" t="s">
         <v>132</v>
@@ -15217,10 +15208,10 @@
         <v>92</v>
       </c>
       <c r="P217" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q217" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R217" s="4" t="s">
         <v>132</v>
@@ -15370,7 +15361,7 @@
         <v>145</v>
       </c>
       <c r="P220" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q220" s="4" t="s">
         <v>132</v>
@@ -15426,7 +15417,7 @@
         <v>145</v>
       </c>
       <c r="P221" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="Q221" s="3" t="s">
         <v>353</v>
@@ -15491,7 +15482,7 @@
         <v>354</v>
       </c>
       <c r="T222" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="W222" s="3"/>
       <c r="X222" s="6" t="s">
@@ -15583,7 +15574,7 @@
         <v>132</v>
       </c>
       <c r="R224" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="S224" s="3" t="s">
         <v>355</v>
@@ -15592,7 +15583,7 @@
         <v>425</v>
       </c>
       <c r="V224" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="X224" s="13" t="s">
         <v>120</v>
@@ -15633,7 +15624,7 @@
         <v>145</v>
       </c>
       <c r="P225" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q225" s="4" t="s">
         <v>132</v>
@@ -15689,7 +15680,7 @@
         <v>145</v>
       </c>
       <c r="P226" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q226" s="4" t="s">
         <v>132</v>
@@ -15742,7 +15733,7 @@
         <v>145</v>
       </c>
       <c r="P227" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q227" s="4" t="s">
         <v>132</v>
@@ -15798,7 +15789,7 @@
         <v>145</v>
       </c>
       <c r="P228" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q228" s="4" t="s">
         <v>132</v>
@@ -15827,72 +15818,51 @@
         <v>180</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="C229" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="D229" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E229" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F229" s="15" t="s">
-        <v>224</v>
+        <v>468</v>
       </c>
       <c r="N229" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O229" s="6" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="P229" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="Q229" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R229" s="3" t="s">
-        <v>297</v>
+      <c r="Q229" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="R229" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="S229" s="4" t="s">
         <v>132</v>
       </c>
       <c r="T229" s="9" t="s">
-        <v>429</v>
+        <v>470</v>
+      </c>
+      <c r="U229" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="W229" s="8" t="s">
+        <v>472</v>
       </c>
       <c r="X229" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="230" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>359</v>
+        <v>468</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="D230" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E230" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F230" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="G230" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="H230" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="N230" s="7" t="s">
-        <v>132</v>
+        <v>104</v>
+      </c>
+      <c r="N230" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="O230" s="6" t="s">
         <v>110</v>
@@ -15900,20 +15870,23 @@
       <c r="P230" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="Q230" s="4" t="s">
-        <v>132</v>
+      <c r="Q230" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="R230" s="3" t="s">
-        <v>297</v>
+        <v>469</v>
       </c>
       <c r="S230" s="4" t="s">
         <v>132</v>
       </c>
       <c r="T230" s="9" t="s">
-        <v>470</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="U230" s="10"/>
+      <c r="V230" s="10"/>
+      <c r="W230" s="10"/>
       <c r="X230" s="6" t="s">
-        <v>290</v>
+        <v>120</v>
       </c>
     </row>
     <row r="231" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -15921,73 +15894,76 @@
         <v>180</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="N231" s="7" t="s">
-        <v>225</v>
+        <v>468</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D231" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="N231" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O231" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P231" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q231" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="R231" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S231" s="4" t="s">
-        <v>132</v>
+        <v>502</v>
+      </c>
+      <c r="Q231" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="R231" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="S231" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="T231" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="U231" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="W231" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="X231" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C232" s="15" t="s">
         <v>104</v>
       </c>
+      <c r="D232" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="N232" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="O232" s="6" t="s">
         <v>110</v>
       </c>
       <c r="P232" s="6" t="s">
-        <v>266</v>
+        <v>503</v>
       </c>
       <c r="Q232" s="3" t="s">
-        <v>472</v>
+        <v>196</v>
       </c>
       <c r="R232" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="S232" s="4" t="s">
-        <v>132</v>
+        <v>334</v>
+      </c>
+      <c r="S232" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="T232" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="U232" s="10"/>
-      <c r="V232" s="10"/>
-      <c r="W232" s="10"/>
+        <v>475</v>
+      </c>
+      <c r="U232" s="8" t="s">
+        <v>476</v>
+      </c>
       <c r="X232" s="6" t="s">
         <v>120</v>
       </c>
@@ -15997,63 +15973,69 @@
         <v>180</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C233" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="N233" s="6" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="E233" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N233" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O233" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P233" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q233" s="3" t="s">
-        <v>341</v>
+        <v>196</v>
       </c>
       <c r="R233" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="S233" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="T233" s="9" t="s">
         <v>477</v>
       </c>
+      <c r="U233" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="X233" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="234" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C234" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N234" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="O234" s="6" t="s">
         <v>110</v>
       </c>
       <c r="P234" s="6" t="s">
-        <v>506</v>
+        <v>266</v>
       </c>
       <c r="Q234" s="3" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="R234" s="3" t="s">
         <v>334</v>
@@ -16064,10 +16046,7 @@
       <c r="T234" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="U234" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="X234" s="6" t="s">
+      <c r="X234" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -16076,51 +16055,57 @@
         <v>180</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C235" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E235" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="N235" s="7" t="s">
-        <v>132</v>
+        <v>202</v>
+      </c>
+      <c r="N235" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O235" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P235" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q235" s="3" t="s">
-        <v>196</v>
+        <v>505</v>
+      </c>
+      <c r="Q235" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R235" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="S235" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
+      </c>
+      <c r="S235" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T235" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="U235" s="10" t="s">
-        <v>106</v>
+        <v>207</v>
+      </c>
+      <c r="U235" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="W235" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="X235" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y235" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C236" s="15" t="s">
         <v>104</v>
@@ -16128,29 +16113,41 @@
       <c r="D236" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="E236" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="N236" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O236" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P236" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q236" s="3" t="s">
-        <v>334</v>
+        <v>505</v>
+      </c>
+      <c r="Q236" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R236" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="S236" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
+      </c>
+      <c r="S236" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T236" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="X236" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="U236" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="W236" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="X236" s="6" t="s">
         <v>120</v>
+      </c>
+      <c r="Y236" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="237" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -16158,7 +16155,7 @@
         <v>180</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C237" s="15" t="s">
         <v>104</v>
@@ -16167,7 +16164,7 @@
         <v>114</v>
       </c>
       <c r="E237" s="15" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="N237" s="6" t="s">
         <v>109</v>
@@ -16176,25 +16173,25 @@
         <v>145</v>
       </c>
       <c r="P237" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q237" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R237" s="3" t="s">
+      <c r="R237" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S237" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="S237" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="T237" s="9" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="U237" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="W237" s="8" t="s">
-        <v>149</v>
+        <v>199</v>
+      </c>
+      <c r="V237" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="X237" s="6" t="s">
         <v>120</v>
@@ -16203,12 +16200,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="238" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C238" s="15" t="s">
         <v>104</v>
@@ -16217,40 +16214,40 @@
         <v>114</v>
       </c>
       <c r="E238" s="15" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="N238" s="6" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="O238" s="6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="P238" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q238" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R238" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q238" s="3" t="s">
         <v>335</v>
       </c>
+      <c r="R238" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="S238" s="4" t="s">
         <v>132</v>
       </c>
       <c r="T238" s="9" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="U238" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="V238" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="W238" s="8" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="X238" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y238" s="3" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
     </row>
     <row r="239" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -16258,7 +16255,7 @@
         <v>180</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C239" s="15" t="s">
         <v>104</v>
@@ -16267,48 +16264,51 @@
         <v>114</v>
       </c>
       <c r="E239" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N239" s="6" t="s">
-        <v>109</v>
+        <v>163</v>
+      </c>
+      <c r="F239" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N239" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O239" s="6" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="P239" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q239" s="4" t="s">
-        <v>132</v>
+        <v>501</v>
+      </c>
+      <c r="Q239" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="R239" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S239" s="3" t="s">
-        <v>335</v>
+      <c r="S239" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T239" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="U239" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="V239" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="X239" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y239" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="240" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="U239" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V239" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="W239" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X239" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C240" s="15" t="s">
         <v>104</v>
@@ -16317,16 +16317,16 @@
         <v>114</v>
       </c>
       <c r="E240" s="15" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="N240" s="6" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="O240" s="6" t="s">
         <v>110</v>
       </c>
       <c r="P240" s="6" t="s">
-        <v>504</v>
+        <v>266</v>
       </c>
       <c r="Q240" s="3" t="s">
         <v>335</v>
@@ -16338,10 +16338,10 @@
         <v>132</v>
       </c>
       <c r="T240" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="U240" s="8" t="s">
-        <v>208</v>
+        <v>216</v>
+      </c>
+      <c r="U240" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="V240" s="8" t="s">
         <v>133</v>
@@ -16350,15 +16350,15 @@
         <v>134</v>
       </c>
       <c r="X240" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="241" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C241" s="15" t="s">
         <v>104</v>
@@ -16367,22 +16367,25 @@
         <v>114</v>
       </c>
       <c r="E241" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F241" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="N241" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O241" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="P241" s="6" t="s">
-        <v>504</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G241" s="17"/>
+      <c r="J241" s="17"/>
+      <c r="K241" s="17"/>
+      <c r="L241" s="17"/>
+      <c r="M241" s="17"/>
+      <c r="N241" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O241" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P241" s="7"/>
       <c r="Q241" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R241" s="4" t="s">
         <v>132</v>
@@ -16391,7 +16394,7 @@
         <v>132</v>
       </c>
       <c r="T241" s="9" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="U241" s="10" t="s">
         <v>106</v>
@@ -16406,12 +16409,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C242" s="15" t="s">
         <v>104</v>
@@ -16422,8 +16425,11 @@
       <c r="E242" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="N242" s="6" t="s">
-        <v>110</v>
+      <c r="F242" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N242" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O242" s="6" t="s">
         <v>110</v>
@@ -16432,7 +16438,7 @@
         <v>266</v>
       </c>
       <c r="Q242" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R242" s="4" t="s">
         <v>132</v>
@@ -16441,27 +16447,27 @@
         <v>132</v>
       </c>
       <c r="T242" s="9" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="U242" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="V242" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="W242" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="X242" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="243" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="V242" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="W242" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X242" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C243" s="15" t="s">
         <v>104</v>
@@ -16472,23 +16478,23 @@
       <c r="E243" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F243" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G243" s="17"/>
-      <c r="J243" s="17"/>
-      <c r="K243" s="17"/>
-      <c r="L243" s="17"/>
-      <c r="M243" s="17"/>
-      <c r="N243" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O243" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P243" s="7"/>
+      <c r="F243" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G243" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N243" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O243" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P243" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="Q243" s="3" t="s">
-        <v>336</v>
+        <v>456</v>
       </c>
       <c r="R243" s="4" t="s">
         <v>132</v>
@@ -16497,7 +16503,7 @@
         <v>132</v>
       </c>
       <c r="T243" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="U243" s="10" t="s">
         <v>106</v>
@@ -16512,12 +16518,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C244" s="15" t="s">
         <v>104</v>
@@ -16531,17 +16537,20 @@
       <c r="F244" s="15" t="s">
         <v>137</v>
       </c>
+      <c r="G244" s="15" t="s">
+        <v>140</v>
+      </c>
       <c r="N244" s="7" t="s">
         <v>132</v>
       </c>
       <c r="O244" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="P244" s="6" t="s">
-        <v>266</v>
+        <v>509</v>
       </c>
       <c r="Q244" s="3" t="s">
-        <v>336</v>
+        <v>456</v>
       </c>
       <c r="R244" s="4" t="s">
         <v>132</v>
@@ -16550,7 +16559,7 @@
         <v>132</v>
       </c>
       <c r="T244" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="U244" s="10" t="s">
         <v>106</v>
@@ -16565,12 +16574,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C245" s="15" t="s">
         <v>104</v>
@@ -16579,25 +16588,19 @@
         <v>114</v>
       </c>
       <c r="E245" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F245" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G245" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N245" s="7" t="s">
-        <v>132</v>
+        <v>170</v>
+      </c>
+      <c r="N245" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="O245" s="6" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="P245" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q245" s="3" t="s">
-        <v>458</v>
+        <v>504</v>
+      </c>
+      <c r="Q245" s="8" t="s">
+        <v>335</v>
       </c>
       <c r="R245" s="4" t="s">
         <v>132</v>
@@ -16606,10 +16609,10 @@
         <v>132</v>
       </c>
       <c r="T245" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="U245" s="10" t="s">
-        <v>106</v>
+        <v>178</v>
+      </c>
+      <c r="U245" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="V245" s="10" t="s">
         <v>106</v>
@@ -16617,16 +16620,16 @@
       <c r="W245" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="X245" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="X245" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C246" s="15" t="s">
         <v>104</v>
@@ -16635,25 +16638,25 @@
         <v>114</v>
       </c>
       <c r="E246" s="15" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="F246" s="15" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="G246" s="15" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="N246" s="7" t="s">
         <v>132</v>
       </c>
       <c r="O246" s="6" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="P246" s="6" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="Q246" s="3" t="s">
-        <v>458</v>
+        <v>339</v>
       </c>
       <c r="R246" s="4" t="s">
         <v>132</v>
@@ -16662,17 +16665,11 @@
         <v>132</v>
       </c>
       <c r="T246" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="U246" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V246" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="W246" s="10" t="s">
-        <v>106</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="U246" s="10"/>
+      <c r="V246" s="10"/>
+      <c r="W246" s="10"/>
       <c r="X246" s="12" t="s">
         <v>106</v>
       </c>
@@ -16682,7 +16679,7 @@
         <v>180</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C247" s="15" t="s">
         <v>104</v>
@@ -16691,16 +16688,16 @@
         <v>114</v>
       </c>
       <c r="E247" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="N247" s="6" t="s">
-        <v>171</v>
+        <v>181</v>
+      </c>
+      <c r="N247" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="O247" s="6" t="s">
         <v>110</v>
       </c>
       <c r="P247" s="6" t="s">
-        <v>507</v>
+        <v>266</v>
       </c>
       <c r="Q247" s="8" t="s">
         <v>335</v>
@@ -16712,27 +16709,21 @@
         <v>132</v>
       </c>
       <c r="T247" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="U247" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="V247" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="W247" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="X247" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="U247" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="X247" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C248" s="15" t="s">
         <v>104</v>
@@ -16741,25 +16732,22 @@
         <v>114</v>
       </c>
       <c r="E248" s="15" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F248" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G248" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="N248" s="7" t="s">
-        <v>132</v>
+        <v>104</v>
+      </c>
+      <c r="N248" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="O248" s="6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="P248" s="6" t="s">
-        <v>507</v>
+        <v>266</v>
       </c>
       <c r="Q248" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R248" s="4" t="s">
         <v>132</v>
@@ -16768,7 +16756,7 @@
         <v>132</v>
       </c>
       <c r="T248" s="9" t="s">
-        <v>179</v>
+        <v>480</v>
       </c>
       <c r="U248" s="10"/>
       <c r="V248" s="10"/>
@@ -16777,12 +16765,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C249" s="15" t="s">
         <v>104</v>
@@ -16793,17 +16781,20 @@
       <c r="E249" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="N249" s="7" t="s">
-        <v>225</v>
+      <c r="F249" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G249" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="N249" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O249" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P249" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q249" s="8" t="s">
-        <v>335</v>
+        <v>145</v>
+      </c>
+      <c r="Q249" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="R249" s="4" t="s">
         <v>132</v>
@@ -16812,21 +16803,18 @@
         <v>132</v>
       </c>
       <c r="T249" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="U249" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="X249" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="X249" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A250" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C250" s="15" t="s">
         <v>104</v>
@@ -16840,17 +16828,20 @@
       <c r="F250" s="15" t="s">
         <v>104</v>
       </c>
+      <c r="G250" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="N250" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="O250" s="6" t="s">
         <v>110</v>
       </c>
       <c r="P250" s="6" t="s">
-        <v>266</v>
+        <v>503</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="R250" s="4" t="s">
         <v>132</v>
@@ -16859,13 +16850,13 @@
         <v>132</v>
       </c>
       <c r="T250" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="U250" s="10"/>
-      <c r="V250" s="10"/>
-      <c r="W250" s="10"/>
-      <c r="X250" s="12" t="s">
-        <v>106</v>
+        <v>192</v>
+      </c>
+      <c r="U250" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="X250" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="251" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -16873,7 +16864,7 @@
         <v>180</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C251" s="15" t="s">
         <v>104</v>
@@ -16888,16 +16879,22 @@
         <v>104</v>
       </c>
       <c r="G251" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="N251" s="6" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="H251" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N251" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O251" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="P251" s="6" t="s">
+        <v>503</v>
       </c>
       <c r="Q251" s="3" t="s">
-        <v>341</v>
+        <v>196</v>
       </c>
       <c r="R251" s="4" t="s">
         <v>132</v>
@@ -16906,18 +16903,21 @@
         <v>132</v>
       </c>
       <c r="T251" s="9" t="s">
-        <v>191</v>
+        <v>197</v>
+      </c>
+      <c r="U251" s="8" t="s">
+        <v>482</v>
       </c>
       <c r="X251" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C252" s="15" t="s">
         <v>104</v>
@@ -16932,19 +16932,19 @@
         <v>104</v>
       </c>
       <c r="G252" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N252" s="6" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="O252" s="6" t="s">
         <v>110</v>
       </c>
       <c r="P252" s="6" t="s">
-        <v>506</v>
+        <v>266</v>
       </c>
       <c r="Q252" s="3" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="R252" s="4" t="s">
         <v>132</v>
@@ -16953,21 +16953,18 @@
         <v>132</v>
       </c>
       <c r="T252" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="U252" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="X252" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="253" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="X252" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C253" s="15" t="s">
         <v>104</v>
@@ -16982,22 +16979,22 @@
         <v>104</v>
       </c>
       <c r="G253" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H253" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="N253" s="7" t="s">
-        <v>132</v>
+        <v>163</v>
+      </c>
+      <c r="N253" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="O253" s="6" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="P253" s="6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>196</v>
+        <v>335</v>
       </c>
       <c r="R253" s="4" t="s">
         <v>132</v>
@@ -17006,21 +17003,21 @@
         <v>132</v>
       </c>
       <c r="T253" s="9" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="U253" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="X253" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="X253" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C254" s="15" t="s">
         <v>104</v>
@@ -17037,17 +17034,23 @@
       <c r="G254" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="N254" s="6" t="s">
-        <v>110</v>
+      <c r="H254" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I254" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N254" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O254" s="6" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="P254" s="6" t="s">
-        <v>266</v>
+        <v>501</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="R254" s="4" t="s">
         <v>132</v>
@@ -17056,18 +17059,23 @@
         <v>132</v>
       </c>
       <c r="T254" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="X254" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="255" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="U254" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V254" s="10"/>
+      <c r="W254" s="10"/>
+      <c r="X254" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C255" s="15" t="s">
         <v>104</v>
@@ -17085,16 +17093,16 @@
         <v>114</v>
       </c>
       <c r="H255" s="15" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="N255" s="6" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="O255" s="6" t="s">
         <v>110</v>
       </c>
       <c r="P255" s="6" t="s">
-        <v>504</v>
+        <v>266</v>
       </c>
       <c r="Q255" s="3" t="s">
         <v>335</v>
@@ -17106,21 +17114,21 @@
         <v>132</v>
       </c>
       <c r="T255" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="U255" s="8" t="s">
-        <v>208</v>
+        <v>216</v>
+      </c>
+      <c r="U255" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="X255" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="256" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A256" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C256" s="15" t="s">
         <v>104</v>
@@ -17138,22 +17146,24 @@
         <v>114</v>
       </c>
       <c r="H256" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="I256" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="N256" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O256" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="P256" s="6" t="s">
-        <v>504</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J256" s="17"/>
+      <c r="K256" s="17"/>
+      <c r="L256" s="17"/>
+      <c r="M256" s="17"/>
+      <c r="N256" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O256" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P256" s="7"/>
       <c r="Q256" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R256" s="4" t="s">
         <v>132</v>
@@ -17162,7 +17172,7 @@
         <v>132</v>
       </c>
       <c r="T256" s="9" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="U256" s="10" t="s">
         <v>106</v>
@@ -17173,12 +17183,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C257" s="15" t="s">
         <v>104</v>
@@ -17198,8 +17208,11 @@
       <c r="H257" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="N257" s="6" t="s">
-        <v>110</v>
+      <c r="I257" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N257" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O257" s="6" t="s">
         <v>110</v>
@@ -17208,7 +17221,7 @@
         <v>266</v>
       </c>
       <c r="Q257" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R257" s="4" t="s">
         <v>132</v>
@@ -17217,21 +17230,23 @@
         <v>132</v>
       </c>
       <c r="T257" s="9" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="U257" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="X257" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="258" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="V257" s="10"/>
+      <c r="W257" s="10"/>
+      <c r="X257" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C258" s="15" t="s">
         <v>104</v>
@@ -17251,22 +17266,23 @@
       <c r="H258" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I258" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J258" s="17"/>
-      <c r="K258" s="17"/>
-      <c r="L258" s="17"/>
-      <c r="M258" s="17"/>
-      <c r="N258" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O258" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P258" s="7"/>
+      <c r="I258" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J258" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N258" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O258" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P258" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="Q258" s="3" t="s">
-        <v>336</v>
+        <v>456</v>
       </c>
       <c r="R258" s="4" t="s">
         <v>132</v>
@@ -17275,7 +17291,7 @@
         <v>132</v>
       </c>
       <c r="T258" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="U258" s="10" t="s">
         <v>106</v>
@@ -17286,12 +17302,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C259" s="15" t="s">
         <v>104</v>
@@ -17314,17 +17330,20 @@
       <c r="I259" s="15" t="s">
         <v>137</v>
       </c>
+      <c r="J259" s="15" t="s">
+        <v>140</v>
+      </c>
       <c r="N259" s="7" t="s">
         <v>132</v>
       </c>
       <c r="O259" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="P259" s="6" t="s">
-        <v>266</v>
+        <v>509</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>336</v>
+        <v>456</v>
       </c>
       <c r="R259" s="4" t="s">
         <v>132</v>
@@ -17333,7 +17352,7 @@
         <v>132</v>
       </c>
       <c r="T259" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="U259" s="10" t="s">
         <v>106</v>
@@ -17344,143 +17363,91 @@
         <v>106</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="C260" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D260" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E260" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F260" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G260" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H260" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="J260" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N260" s="7" t="s">
-        <v>132</v>
+        <v>25</v>
+      </c>
+      <c r="N260" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O260" s="6" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="P260" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q260" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="R260" s="4" t="s">
-        <v>132</v>
+        <v>513</v>
+      </c>
+      <c r="Q260" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="R260" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="S260" s="4" t="s">
         <v>132</v>
       </c>
       <c r="T260" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="U260" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V260" s="10"/>
-      <c r="W260" s="10"/>
-      <c r="X260" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="U260" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="V260" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="X260" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="C261" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D261" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E261" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F261" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G261" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H261" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="I261" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="J261" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N261" s="7" t="s">
-        <v>132</v>
+        <v>51</v>
+      </c>
+      <c r="N261" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O261" s="6" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="P261" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q261" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="R261" s="4" t="s">
-        <v>132</v>
+        <v>513</v>
+      </c>
+      <c r="Q261" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R261" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="S261" s="4" t="s">
         <v>132</v>
       </c>
       <c r="T261" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="U261" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V261" s="10"/>
-      <c r="W261" s="10"/>
-      <c r="X261" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="262" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+      <c r="X261" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="N262" s="6" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="O262" s="6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="P262" s="6" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="Q262" s="8" t="s">
         <v>344</v>
@@ -17488,60 +17455,60 @@
       <c r="R262" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="S262" s="4" t="s">
-        <v>132</v>
+      <c r="S262" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="T262" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="U262" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="V262" s="8" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="X262" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="N263" s="6" t="s">
-        <v>109</v>
+        <v>9</v>
+      </c>
+      <c r="C263" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="N263" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O263" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P263" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q263" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R263" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S263" s="4" t="s">
-        <v>132</v>
+        <v>511</v>
+      </c>
+      <c r="Q263" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="R263" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="S263" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="T263" s="9" t="s">
         <v>489</v>
       </c>
+      <c r="U263" s="8" t="s">
+        <v>491</v>
+      </c>
       <c r="X263" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N264" s="6" t="s">
         <v>146</v>
@@ -17550,33 +17517,39 @@
         <v>110</v>
       </c>
       <c r="P264" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="Q264" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="R264" s="8" t="s">
-        <v>344</v>
+        <v>498</v>
+      </c>
+      <c r="R264" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="S264" s="8" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="T264" s="9" t="s">
-        <v>493</v>
+        <v>496</v>
+      </c>
+      <c r="U264" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="W264" s="8" t="s">
+        <v>499</v>
       </c>
       <c r="X264" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N265" s="7" t="s">
         <v>132</v>
@@ -17585,103 +17558,27 @@
         <v>147</v>
       </c>
       <c r="P265" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="Q265" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="R265" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
+      </c>
+      <c r="R265" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="S265" s="3" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="T265" s="9" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="U265" s="8" t="s">
-        <v>494</v>
+        <v>512</v>
+      </c>
+      <c r="W265" s="8" t="s">
+        <v>500</v>
       </c>
       <c r="X265" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="266" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B266" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N266" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="O266" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P266" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q266" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="R266" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S266" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T266" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="U266" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="W266" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="X266" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="267" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A267" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B267" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C267" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="N267" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O267" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="P267" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q267" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="R267" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S267" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="T267" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="U267" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="W267" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="X267" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -19427,41 +19324,41 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/docs/struktuura.xlsx
+++ b/docs/struktuura.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4658" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="518">
   <si>
     <t>&gt; python scripts/struktuura.py dati/analyzed_tezaurs.json</t>
   </si>
@@ -2758,58 +2758,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> vārda izrunām.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jāapskatās, kas tur ir noticis - locīšanas informācijai nav pamata būt </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FormRestrictions/Header</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jā, kļūda arī esošās </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FormRestrictions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> struktūras ietvaros.</t>
     </r>
   </si>
   <si>
@@ -3610,11 +3558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y265"/>
+  <dimension ref="A1:Y264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R142" sqref="R142"/>
+      <selection pane="bottomLeft" activeCell="R141" sqref="R141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3665,10 +3613,10 @@
         <v>107</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>346</v>
@@ -3750,7 +3698,7 @@
         <v>108</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>385</v>
@@ -3782,7 +3730,7 @@
         <v>306</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>385</v>
@@ -3867,7 +3815,7 @@
         <v>145</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>332</v>
@@ -3902,7 +3850,7 @@
         <v>110</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>334</v>
@@ -3952,7 +3900,7 @@
         <v>147</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>333</v>
@@ -4202,7 +4150,7 @@
         <v>383</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>132</v>
@@ -4252,10 +4200,10 @@
         <v>92</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>132</v>
@@ -4299,7 +4247,7 @@
         <v>110</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>335</v>
@@ -4349,7 +4297,7 @@
         <v>175</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>337</v>
@@ -4396,7 +4344,7 @@
         <v>145</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>132</v>
@@ -4443,7 +4391,7 @@
         <v>145</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>338</v>
@@ -4493,7 +4441,7 @@
         <v>110</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>335</v>
@@ -4546,7 +4494,7 @@
         <v>145</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>339</v>
@@ -4688,7 +4636,7 @@
         <v>145</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>341</v>
@@ -4732,7 +4680,7 @@
         <v>110</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>196</v>
@@ -4779,7 +4727,7 @@
         <v>147</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>196</v>
@@ -4870,7 +4818,7 @@
         <v>145</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>132</v>
@@ -4926,7 +4874,7 @@
         <v>145</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>132</v>
@@ -4982,7 +4930,7 @@
         <v>145</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>132</v>
@@ -5038,7 +4986,7 @@
         <v>110</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>335</v>
@@ -5097,7 +5045,7 @@
         <v>175</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>337</v>
@@ -5339,7 +5287,7 @@
         <v>383</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>132</v>
@@ -5398,10 +5346,10 @@
         <v>92</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>132</v>
@@ -5548,7 +5496,7 @@
         <v>145</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>132</v>
@@ -5607,7 +5555,7 @@
         <v>145</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>132</v>
@@ -5724,7 +5672,7 @@
         <v>306</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>410</v>
@@ -5967,7 +5915,7 @@
         <v>383</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R48" s="4" t="s">
         <v>132</v>
@@ -6020,10 +5968,10 @@
         <v>92</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R49" s="4" t="s">
         <v>132</v>
@@ -6070,7 +6018,7 @@
         <v>110</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q50" s="8" t="s">
         <v>297</v>
@@ -6117,7 +6065,7 @@
         <v>175</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>337</v>
@@ -6163,7 +6111,7 @@
         <v>145</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q52" s="4" t="s">
         <v>132</v>
@@ -6213,7 +6161,7 @@
         <v>145</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>338</v>
@@ -6266,7 +6214,7 @@
         <v>110</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>335</v>
@@ -6322,7 +6270,7 @@
         <v>145</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>339</v>
@@ -6425,7 +6373,7 @@
         <v>145</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q57" s="4" t="s">
         <v>132</v>
@@ -6478,7 +6426,7 @@
         <v>145</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q58" s="4" t="s">
         <v>132</v>
@@ -6631,7 +6579,7 @@
         <v>145</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>132</v>
@@ -6687,7 +6635,7 @@
         <v>110</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q62" s="4" t="s">
         <v>301</v>
@@ -6740,7 +6688,7 @@
         <v>147</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q63" s="4" t="s">
         <v>301</v>
@@ -6790,7 +6738,7 @@
         <v>145</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q64" s="4" t="s">
         <v>132</v>
@@ -6922,7 +6870,7 @@
         <v>145</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q67" s="4" t="s">
         <v>132</v>
@@ -6972,7 +6920,7 @@
         <v>145</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Q68" s="3" t="s">
         <v>353</v>
@@ -7031,7 +6979,7 @@
         <v>354</v>
       </c>
       <c r="T69" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="W69" s="3" t="s">
         <v>377</v>
@@ -7154,7 +7102,7 @@
         <v>145</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q72" s="4" t="s">
         <v>132</v>
@@ -7198,7 +7146,7 @@
         <v>145</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q73" s="4" t="s">
         <v>132</v>
@@ -7245,7 +7193,7 @@
         <v>145</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q74" s="4" t="s">
         <v>132</v>
@@ -7295,7 +7243,7 @@
         <v>145</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Q75" s="4" t="s">
         <v>132</v>
@@ -7530,7 +7478,7 @@
         <v>145</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q80" s="4" t="s">
         <v>132</v>
@@ -7586,7 +7534,7 @@
         <v>145</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q81" s="4" t="s">
         <v>132</v>
@@ -7639,7 +7587,7 @@
         <v>110</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q82" s="3" t="s">
         <v>297</v>
@@ -7689,7 +7637,7 @@
         <v>175</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>297</v>
@@ -7925,7 +7873,7 @@
         <v>383</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R87" s="4" t="s">
         <v>132</v>
@@ -7984,10 +7932,10 @@
         <v>92</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R88" s="4" t="s">
         <v>132</v>
@@ -8037,7 +7985,7 @@
         <v>230</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>384</v>
@@ -8052,7 +8000,7 @@
         <v>419</v>
       </c>
       <c r="U89" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="X89" s="6" t="s">
         <v>402</v>
@@ -8087,7 +8035,7 @@
         <v>145</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Q90" s="3" t="s">
         <v>404</v>
@@ -8114,7 +8062,7 @@
         <v>106</v>
       </c>
       <c r="Y90" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="45" x14ac:dyDescent="0.25">
@@ -8143,7 +8091,7 @@
         <v>145</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q91" s="4" t="s">
         <v>132</v>
@@ -8193,13 +8141,13 @@
         <v>132</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="S92" s="4" t="s">
         <v>132</v>
       </c>
       <c r="T92" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="X92" s="6" t="s">
         <v>120</v>
@@ -8328,7 +8276,7 @@
         <v>306</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q95" s="3" t="s">
         <v>412</v>
@@ -8434,7 +8382,7 @@
         <v>145</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q97" s="4" t="s">
         <v>132</v>
@@ -8493,7 +8441,7 @@
         <v>145</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q98" s="3" t="s">
         <v>416</v>
@@ -8757,7 +8705,7 @@
         <v>383</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R102" s="4" t="s">
         <v>132</v>
@@ -8822,10 +8770,10 @@
         <v>92</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R103" s="4" t="s">
         <v>132</v>
@@ -8993,7 +8941,7 @@
         <v>145</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q106" s="4" t="s">
         <v>132</v>
@@ -9055,7 +9003,7 @@
         <v>145</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Q107" s="3" t="s">
         <v>353</v>
@@ -9126,7 +9074,7 @@
         <v>354</v>
       </c>
       <c r="T108" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="W108" s="3" t="s">
         <v>377</v>
@@ -9285,7 +9233,7 @@
         <v>145</v>
       </c>
       <c r="P111" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q111" s="4" t="s">
         <v>132</v>
@@ -9341,7 +9289,7 @@
         <v>145</v>
       </c>
       <c r="P112" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q112" s="4" t="s">
         <v>132</v>
@@ -9400,7 +9348,7 @@
         <v>145</v>
       </c>
       <c r="P113" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q113" s="4" t="s">
         <v>132</v>
@@ -9462,7 +9410,7 @@
         <v>145</v>
       </c>
       <c r="P114" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Q114" s="4" t="s">
         <v>132</v>
@@ -9812,7 +9760,7 @@
         <v>383</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R121" s="4" t="s">
         <v>132</v>
@@ -9871,10 +9819,10 @@
         <v>92</v>
       </c>
       <c r="P122" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R122" s="4" t="s">
         <v>132</v>
@@ -9927,7 +9875,7 @@
         <v>110</v>
       </c>
       <c r="P123" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q123" s="8" t="s">
         <v>297</v>
@@ -9980,7 +9928,7 @@
         <v>175</v>
       </c>
       <c r="P124" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q124" s="3" t="s">
         <v>337</v>
@@ -10032,7 +9980,7 @@
         <v>145</v>
       </c>
       <c r="P125" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q125" s="4" t="s">
         <v>132</v>
@@ -10088,7 +10036,7 @@
         <v>145</v>
       </c>
       <c r="P126" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q126" s="3" t="s">
         <v>338</v>
@@ -10147,7 +10095,7 @@
         <v>110</v>
       </c>
       <c r="P127" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q127" s="3" t="s">
         <v>335</v>
@@ -10209,7 +10157,7 @@
         <v>145</v>
       </c>
       <c r="P128" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q128" s="3" t="s">
         <v>339</v>
@@ -10428,7 +10376,7 @@
         <v>110</v>
       </c>
       <c r="P132" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q132" s="4" t="s">
         <v>132</v>
@@ -10484,7 +10432,7 @@
         <v>147</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q133" s="4" t="s">
         <v>132</v>
@@ -10593,7 +10541,7 @@
         <v>145</v>
       </c>
       <c r="P135" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q135" s="4" t="s">
         <v>132</v>
@@ -10652,7 +10600,7 @@
         <v>145</v>
       </c>
       <c r="P136" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q136" s="4" t="s">
         <v>132</v>
@@ -10823,7 +10771,7 @@
         <v>145</v>
       </c>
       <c r="P139" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q139" s="4" t="s">
         <v>132</v>
@@ -10885,7 +10833,7 @@
         <v>110</v>
       </c>
       <c r="P140" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q140" s="4" t="s">
         <v>301</v>
@@ -10944,7 +10892,7 @@
         <v>147</v>
       </c>
       <c r="P141" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q141" s="4" t="s">
         <v>301</v>
@@ -10962,7 +10910,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
         <v>180</v>
       </c>
@@ -10991,7 +10939,7 @@
         <v>114</v>
       </c>
       <c r="J142" s="15" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="N142" s="6" t="s">
         <v>109</v>
@@ -11000,22 +10948,25 @@
         <v>145</v>
       </c>
       <c r="P142" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q142" s="4" t="s">
         <v>132</v>
       </c>
       <c r="R142" s="3" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="S142" s="4" t="s">
         <v>132</v>
       </c>
       <c r="T142" s="9" t="s">
-        <v>450</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="U142" s="10"/>
+      <c r="V142" s="10"/>
+      <c r="W142" s="10"/>
       <c r="X142" s="13" t="s">
-        <v>451</v>
+        <v>220</v>
       </c>
       <c r="Y142" s="3" t="s">
         <v>201</v>
@@ -11038,52 +10989,34 @@
         <v>231</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="H143" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I143" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J143" s="15" t="s">
-        <v>148</v>
+        <v>304</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>109</v>
+        <v>305</v>
       </c>
       <c r="O143" s="6" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="P143" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q143" s="4" t="s">
-        <v>132</v>
+        <v>266</v>
+      </c>
+      <c r="Q143" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="R143" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="S143" s="4" t="s">
-        <v>132</v>
+        <v>349</v>
+      </c>
+      <c r="S143" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="T143" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="U143" s="10"/>
-      <c r="V143" s="10"/>
-      <c r="W143" s="10"/>
-      <c r="X143" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y143" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="X143" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
         <v>180</v>
       </c>
@@ -11102,32 +11035,35 @@
       <c r="F144" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="N144" s="6" t="s">
-        <v>305</v>
+      <c r="G144" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="N144" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O144" s="6" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="P144" s="6" t="s">
         <v>266</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="R144" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S144" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="T144" s="9" t="s">
-        <v>452</v>
+        <v>316</v>
       </c>
       <c r="X144" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
         <v>180</v>
       </c>
@@ -11147,32 +11083,44 @@
         <v>304</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="N145" s="7" t="s">
-        <v>132</v>
+        <v>309</v>
+      </c>
+      <c r="H145" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I145" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O145" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P145" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q145" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="R145" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="S145" s="3" t="s">
-        <v>351</v>
+        <v>503</v>
+      </c>
+      <c r="Q145" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R145" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S145" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="T145" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="W145" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="X145" s="6" t="s">
         <v>120</v>
       </c>
+      <c r="Y145" s="3" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="146" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
@@ -11197,10 +11145,7 @@
         <v>309</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I146" s="15" t="s">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="N146" s="6" t="s">
         <v>109</v>
@@ -11209,31 +11154,34 @@
         <v>145</v>
       </c>
       <c r="P146" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q146" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R146" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S146" s="8" t="s">
-        <v>352</v>
+        <v>511</v>
+      </c>
+      <c r="Q146" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R146" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="S146" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="T146" s="9" t="s">
-        <v>315</v>
+        <v>451</v>
+      </c>
+      <c r="U146" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="V146" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="W146" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X146" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Y146" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
         <v>180</v>
       </c>
@@ -11250,49 +11198,37 @@
         <v>231</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="H147" s="15" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="O147" s="6" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="P147" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q147" s="3" t="s">
-        <v>353</v>
+        <v>266</v>
+      </c>
+      <c r="Q147" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R147" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S147" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T147" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="U147" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="V147" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="W147" s="8" t="s">
-        <v>313</v>
+        <v>452</v>
+      </c>
+      <c r="W147" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="X147" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
         <v>180</v>
       </c>
@@ -11311,11 +11247,14 @@
       <c r="F148" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="N148" s="6" t="s">
-        <v>318</v>
+      <c r="G148" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="N148" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O148" s="6" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="P148" s="6" t="s">
         <v>266</v>
@@ -11324,16 +11263,13 @@
         <v>132</v>
       </c>
       <c r="R148" s="3" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="S148" s="3" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="T148" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="W148" s="3" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="X148" s="6" t="s">
         <v>120</v>
@@ -11359,10 +11295,13 @@
         <v>317</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N149" s="7" t="s">
-        <v>132</v>
+        <v>321</v>
+      </c>
+      <c r="H149" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N149" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="O149" s="6" t="s">
         <v>110</v>
@@ -11374,19 +11313,19 @@
         <v>132</v>
       </c>
       <c r="R149" s="3" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="S149" s="3" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="T149" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="X149" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="X149" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
         <v>180</v>
       </c>
@@ -11411,43 +11350,43 @@
       <c r="H150" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="I150" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="N150" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O150" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P150" s="6" t="s">
-        <v>266</v>
+        <v>503</v>
       </c>
       <c r="Q150" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R150" s="3" t="s">
-        <v>355</v>
+      <c r="R150" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="S150" s="3" t="s">
         <v>355</v>
       </c>
       <c r="T150" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="X150" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="W150" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="X150" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="151" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="16" t="s">
-        <v>180</v>
-      </c>
       <c r="B151" s="15" t="s">
         <v>224</v>
       </c>
       <c r="C151" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="E151" s="15" t="s">
         <v>231</v>
@@ -11462,7 +11401,7 @@
         <v>114</v>
       </c>
       <c r="I151" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N151" s="6" t="s">
         <v>109</v>
@@ -11471,33 +11410,39 @@
         <v>145</v>
       </c>
       <c r="P151" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q151" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R151" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S151" s="3" t="s">
+      <c r="R151" s="3" t="s">
         <v>355</v>
       </c>
+      <c r="S151" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="T151" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="W151" s="8" t="s">
-        <v>149</v>
+        <v>329</v>
+      </c>
+      <c r="V151" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="X151" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="A152" s="16" t="s">
+        <v>180</v>
+      </c>
       <c r="B152" s="15" t="s">
         <v>224</v>
       </c>
       <c r="C152" s="15" t="s">
         <v>231</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="E152" s="15" t="s">
         <v>231</v>
@@ -11509,10 +11454,7 @@
         <v>321</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I152" s="15" t="s">
-        <v>142</v>
+        <v>322</v>
       </c>
       <c r="N152" s="6" t="s">
         <v>109</v>
@@ -11521,28 +11463,31 @@
         <v>145</v>
       </c>
       <c r="P152" s="6" t="s">
-        <v>505</v>
+        <v>266</v>
       </c>
       <c r="Q152" s="4" t="s">
         <v>132</v>
       </c>
       <c r="R152" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="S152" s="4" t="s">
-        <v>132</v>
+        <v>356</v>
+      </c>
+      <c r="S152" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="T152" s="9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="V152" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
+      </c>
+      <c r="W152" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="X152" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
         <v>180</v>
       </c>
@@ -11565,7 +11510,7 @@
         <v>321</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N153" s="6" t="s">
         <v>109</v>
@@ -11574,84 +11519,81 @@
         <v>145</v>
       </c>
       <c r="P153" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q153" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R153" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="S153" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="T153" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="X153" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y153" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A154" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F154" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="O154" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="P154" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="Q153" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R153" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="S153" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="T153" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="V153" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="W153" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="X153" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E154" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F154" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="G154" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="H154" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="N154" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O154" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="P154" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q154" s="4" t="s">
-        <v>132</v>
+      <c r="Q154" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="R154" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S154" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T154" s="9" t="s">
-        <v>357</v>
+        <v>453</v>
+      </c>
+      <c r="U154" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="V154" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="W154" s="8" t="s">
+        <v>376</v>
       </c>
       <c r="X154" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Y154" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
         <v>180</v>
       </c>
@@ -11670,41 +11612,35 @@
       <c r="F155" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="N155" s="6" t="s">
-        <v>360</v>
+      <c r="G155" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="N155" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O155" s="6" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="P155" s="6" t="s">
         <v>266</v>
       </c>
       <c r="Q155" s="3" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="R155" s="3" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="S155" s="3" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="T155" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="U155" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="V155" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="W155" s="8" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="X155" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
         <v>180</v>
       </c>
@@ -11724,34 +11660,46 @@
         <v>359</v>
       </c>
       <c r="G156" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="N156" s="7" t="s">
-        <v>132</v>
+        <v>381</v>
+      </c>
+      <c r="H156" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="N156" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O156" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P156" s="6" t="s">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="R156" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="S156" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="T156" s="9" t="s">
-        <v>422</v>
+        <v>387</v>
+      </c>
+      <c r="U156" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="V156" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="W156" s="8" t="s">
+        <v>390</v>
       </c>
       <c r="X156" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="157" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
         <v>180</v>
       </c>
@@ -11774,39 +11722,30 @@
         <v>381</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>382</v>
+        <v>114</v>
       </c>
       <c r="N157" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O157" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P157" s="6" t="s">
-        <v>383</v>
+        <v>266</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="R157" s="3" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="S157" s="3" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="T157" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="U157" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="V157" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="W157" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="X157" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="X157" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -11835,29 +11774,41 @@
       <c r="H158" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="I158" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="N158" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O158" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P158" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q158" s="3" t="s">
-        <v>391</v>
+        <v>503</v>
+      </c>
+      <c r="Q158" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R158" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="S158" s="3" t="s">
-        <v>391</v>
+        <v>335</v>
+      </c>
+      <c r="S158" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T158" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="X158" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="U158" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="W158" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="X158" s="6" t="s">
         <v>120</v>
+      </c>
+      <c r="Y158" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="159" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -11886,7 +11837,7 @@
         <v>114</v>
       </c>
       <c r="I159" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N159" s="6" t="s">
         <v>109</v>
@@ -11895,25 +11846,22 @@
         <v>145</v>
       </c>
       <c r="P159" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q159" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R159" s="3" t="s">
+      <c r="R159" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S159" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="S159" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="T159" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="U159" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="W159" s="8" t="s">
-        <v>149</v>
+        <v>394</v>
+      </c>
+      <c r="V159" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="X159" s="6" t="s">
         <v>120</v>
@@ -11922,7 +11870,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
         <v>180</v>
       </c>
@@ -11948,40 +11896,43 @@
         <v>114</v>
       </c>
       <c r="I160" s="15" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="N160" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O160" s="6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q160" s="4" t="s">
-        <v>132</v>
+        <v>266</v>
+      </c>
+      <c r="Q160" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="R160" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S160" s="3" t="s">
-        <v>335</v>
+      <c r="S160" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T160" s="9" t="s">
-        <v>394</v>
+        <v>397</v>
+      </c>
+      <c r="U160" s="11" t="s">
+        <v>398</v>
       </c>
       <c r="V160" s="8" t="s">
-        <v>395</v>
+        <v>133</v>
+      </c>
+      <c r="W160" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="X160" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y160" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
         <v>180</v>
       </c>
@@ -12009,17 +11960,21 @@
       <c r="I161" s="15" t="s">
         <v>126</v>
       </c>
+      <c r="J161" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+      <c r="M161" s="17"/>
       <c r="N161" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O161" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P161" s="6" t="s">
-        <v>266</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="O161" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P161" s="7"/>
       <c r="Q161" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R161" s="4" t="s">
         <v>132</v>
@@ -12028,22 +11983,22 @@
         <v>132</v>
       </c>
       <c r="T161" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="U161" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="V161" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="W161" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="X161" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="U161" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V161" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="W161" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X161" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
         <v>180</v>
       </c>
@@ -12071,19 +12026,18 @@
       <c r="I162" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K162" s="17"/>
-      <c r="L162" s="17"/>
-      <c r="M162" s="17"/>
-      <c r="N162" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O162" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P162" s="7"/>
+      <c r="J162" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N162" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O162" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P162" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="Q162" s="3" t="s">
         <v>336</v>
       </c>
@@ -12094,7 +12048,7 @@
         <v>132</v>
       </c>
       <c r="T162" s="9" t="s">
-        <v>135</v>
+        <v>423</v>
       </c>
       <c r="U162" s="10" t="s">
         <v>106</v>
@@ -12140,17 +12094,20 @@
       <c r="J163" s="15" t="s">
         <v>137</v>
       </c>
+      <c r="K163" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="N163" s="7" t="s">
         <v>132</v>
       </c>
       <c r="O163" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="P163" s="6" t="s">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>336</v>
+        <v>454</v>
       </c>
       <c r="R163" s="4" t="s">
         <v>132</v>
@@ -12159,7 +12116,7 @@
         <v>132</v>
       </c>
       <c r="T163" s="9" t="s">
-        <v>423</v>
+        <v>139</v>
       </c>
       <c r="U163" s="10" t="s">
         <v>106</v>
@@ -12174,7 +12131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
         <v>180</v>
       </c>
@@ -12206,7 +12163,7 @@
         <v>137</v>
       </c>
       <c r="K164" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N164" s="7" t="s">
         <v>132</v>
@@ -12215,10 +12172,10 @@
         <v>92</v>
       </c>
       <c r="P164" s="6" t="s">
-        <v>383</v>
+        <v>507</v>
       </c>
       <c r="Q164" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R164" s="4" t="s">
         <v>132</v>
@@ -12227,7 +12184,7 @@
         <v>132</v>
       </c>
       <c r="T164" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="U164" s="10" t="s">
         <v>106</v>
@@ -12242,7 +12199,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="165" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
         <v>180</v>
       </c>
@@ -12265,49 +12222,34 @@
         <v>381</v>
       </c>
       <c r="H165" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I165" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="J165" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="K165" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N165" s="7" t="s">
-        <v>132</v>
+        <v>399</v>
+      </c>
+      <c r="N165" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="O165" s="6" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="P165" s="6" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="R165" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S165" s="4" t="s">
-        <v>132</v>
+        <v>384</v>
+      </c>
+      <c r="R165" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="S165" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="T165" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="U165" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V165" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="W165" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="X165" s="12" t="s">
-        <v>106</v>
+        <v>419</v>
+      </c>
+      <c r="U165" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="X165" s="6" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="166" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -12335,35 +12277,47 @@
       <c r="H166" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="N166" s="6" t="s">
-        <v>401</v>
+      <c r="I166" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="N166" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O166" s="6" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="P166" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q166" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="R166" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="S166" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="T166" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="U166" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="V166" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="W166" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="X166" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y166" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="Q166" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="R166" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="S166" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="T166" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="U166" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="X166" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
         <v>180</v>
       </c>
@@ -12386,49 +12340,34 @@
         <v>381</v>
       </c>
       <c r="H167" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="I167" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="N167" s="7" t="s">
-        <v>132</v>
+        <v>407</v>
+      </c>
+      <c r="N167" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O167" s="6" t="s">
         <v>145</v>
       </c>
       <c r="P167" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q167" s="3" t="s">
-        <v>404</v>
+        <v>502</v>
+      </c>
+      <c r="Q167" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R167" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="S167" s="3" t="s">
-        <v>404</v>
+        <v>411</v>
+      </c>
+      <c r="S167" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T167" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="U167" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="V167" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="W167" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="X167" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y167" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="X167" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
         <v>180</v>
       </c>
@@ -12453,32 +12392,32 @@
       <c r="H168" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="N168" s="6" t="s">
-        <v>109</v>
+      <c r="I168" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="N168" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O168" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="P168" s="6" t="s">
-        <v>504</v>
-      </c>
       <c r="Q168" s="4" t="s">
         <v>132</v>
       </c>
       <c r="R168" s="3" t="s">
-        <v>411</v>
+        <v>516</v>
       </c>
       <c r="S168" s="4" t="s">
         <v>132</v>
       </c>
       <c r="T168" s="9" t="s">
-        <v>408</v>
+        <v>517</v>
       </c>
       <c r="X168" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="s">
         <v>180</v>
       </c>
@@ -12501,34 +12440,34 @@
         <v>381</v>
       </c>
       <c r="H169" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="I169" s="15" t="s">
-        <v>400</v>
+        <v>224</v>
       </c>
       <c r="N169" s="7" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="O169" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q169" s="4" t="s">
-        <v>132</v>
+        <v>230</v>
+      </c>
+      <c r="P169" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q169" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="R169" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="S169" s="4" t="s">
-        <v>132</v>
+        <v>409</v>
+      </c>
+      <c r="S169" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="T169" s="9" t="s">
-        <v>519</v>
+        <v>421</v>
       </c>
       <c r="X169" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="170" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="s">
         <v>180</v>
       </c>
@@ -12553,32 +12492,35 @@
       <c r="H170" s="15" t="s">
         <v>224</v>
       </c>
+      <c r="I170" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="N170" s="7" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="O170" s="6" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="P170" s="6" t="s">
         <v>266</v>
       </c>
       <c r="Q170" s="3" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="R170" s="3" t="s">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="S170" s="3" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="T170" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="X170" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
         <v>180</v>
       </c>
@@ -12604,34 +12546,40 @@
         <v>224</v>
       </c>
       <c r="I171" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="N171" s="7" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+      <c r="J171" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="N171" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="O171" s="6" t="s">
-        <v>110</v>
+        <v>306</v>
       </c>
       <c r="P171" s="6" t="s">
-        <v>266</v>
+        <v>499</v>
       </c>
       <c r="Q171" s="3" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="R171" s="3" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="S171" s="3" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="T171" s="9" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="X171" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="172" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="Y171" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="16" t="s">
         <v>180</v>
       </c>
@@ -12660,34 +12608,31 @@
         <v>231</v>
       </c>
       <c r="J172" s="15" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="O172" s="6" t="s">
-        <v>306</v>
+        <v>110</v>
       </c>
       <c r="P172" s="6" t="s">
-        <v>501</v>
+        <v>266</v>
       </c>
       <c r="Q172" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="R172" s="3" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="S172" s="3" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="T172" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="X172" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="X172" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="Y172" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="173" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -12721,29 +12666,38 @@
       <c r="J173" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="K173" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="N173" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O173" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P173" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q173" s="3" t="s">
-        <v>416</v>
+        <v>503</v>
+      </c>
+      <c r="Q173" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R173" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="S173" s="3" t="s">
-        <v>391</v>
+        <v>335</v>
+      </c>
+      <c r="S173" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T173" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="X173" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="W173" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="X173" s="6" t="s">
         <v>120</v>
+      </c>
+      <c r="Y173" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -12778,7 +12732,7 @@
         <v>114</v>
       </c>
       <c r="K174" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N174" s="6" t="s">
         <v>109</v>
@@ -12787,22 +12741,25 @@
         <v>145</v>
       </c>
       <c r="P174" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q174" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R174" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q174" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="S174" s="4" t="s">
-        <v>132</v>
+      <c r="R174" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S174" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="T174" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="W174" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="U174" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="V174" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="X174" s="6" t="s">
         <v>120</v>
@@ -12811,7 +12768,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
         <v>180</v>
       </c>
@@ -12843,16 +12800,16 @@
         <v>114</v>
       </c>
       <c r="K175" s="15" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O175" s="6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="P175" s="6" t="s">
-        <v>505</v>
+        <v>266</v>
       </c>
       <c r="Q175" s="3" t="s">
         <v>335</v>
@@ -12860,26 +12817,26 @@
       <c r="R175" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S175" s="3" t="s">
-        <v>335</v>
+      <c r="S175" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T175" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="U175" s="8" t="s">
-        <v>417</v>
+        <v>286</v>
+      </c>
+      <c r="U175" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="V175" s="8" t="s">
-        <v>200</v>
+        <v>133</v>
+      </c>
+      <c r="W175" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="X175" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y175" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
         <v>180</v>
       </c>
@@ -12913,17 +12870,19 @@
       <c r="K176" s="15" t="s">
         <v>126</v>
       </c>
+      <c r="L176" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M176" s="17"/>
       <c r="N176" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O176" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P176" s="6" t="s">
-        <v>266</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="O176" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P176" s="7"/>
       <c r="Q176" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R176" s="4" t="s">
         <v>132</v>
@@ -12932,22 +12891,22 @@
         <v>132</v>
       </c>
       <c r="T176" s="9" t="s">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="U176" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="V176" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="W176" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="X176" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="177" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="V176" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="W176" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X176" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
         <v>180</v>
       </c>
@@ -12981,17 +12940,15 @@
       <c r="K177" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="L177" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M177" s="17"/>
-      <c r="N177" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O177" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P177" s="7"/>
+      <c r="L177" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N177" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O177" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="Q177" s="3" t="s">
         <v>336</v>
       </c>
@@ -13002,7 +12959,7 @@
         <v>132</v>
       </c>
       <c r="T177" s="9" t="s">
-        <v>135</v>
+        <v>423</v>
       </c>
       <c r="U177" s="10" t="s">
         <v>106</v>
@@ -13054,14 +13011,20 @@
       <c r="L178" s="15" t="s">
         <v>137</v>
       </c>
+      <c r="M178" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="N178" s="7" t="s">
         <v>132</v>
       </c>
       <c r="O178" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
+      </c>
+      <c r="P178" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="Q178" s="3" t="s">
-        <v>336</v>
+        <v>454</v>
       </c>
       <c r="R178" s="4" t="s">
         <v>132</v>
@@ -13070,7 +13033,7 @@
         <v>132</v>
       </c>
       <c r="T178" s="9" t="s">
-        <v>423</v>
+        <v>139</v>
       </c>
       <c r="U178" s="10" t="s">
         <v>106</v>
@@ -13085,7 +13048,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
         <v>180</v>
       </c>
@@ -13123,7 +13086,7 @@
         <v>137</v>
       </c>
       <c r="M179" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N179" s="7" t="s">
         <v>132</v>
@@ -13132,10 +13095,10 @@
         <v>92</v>
       </c>
       <c r="P179" s="6" t="s">
-        <v>383</v>
+        <v>507</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R179" s="4" t="s">
         <v>132</v>
@@ -13144,7 +13107,7 @@
         <v>132</v>
       </c>
       <c r="T179" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="U179" s="10" t="s">
         <v>106</v>
@@ -13188,52 +13151,34 @@
         <v>231</v>
       </c>
       <c r="J180" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K180" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="L180" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="M180" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N180" s="7" t="s">
-        <v>132</v>
+        <v>304</v>
+      </c>
+      <c r="N180" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="O180" s="6" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="P180" s="6" t="s">
-        <v>509</v>
+        <v>266</v>
       </c>
       <c r="Q180" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="R180" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S180" s="4" t="s">
-        <v>132</v>
+        <v>349</v>
+      </c>
+      <c r="R180" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="S180" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="T180" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="U180" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V180" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="W180" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="X180" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="181" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="X180" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
         <v>180</v>
       </c>
@@ -13264,32 +13209,35 @@
       <c r="J181" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="N181" s="6" t="s">
-        <v>305</v>
+      <c r="K181" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="N181" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O181" s="6" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="P181" s="6" t="s">
         <v>266</v>
       </c>
       <c r="Q181" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="R181" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S181" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="T181" s="9" t="s">
-        <v>418</v>
+        <v>316</v>
       </c>
       <c r="X181" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
         <v>180</v>
       </c>
@@ -13321,34 +13269,46 @@
         <v>304</v>
       </c>
       <c r="K182" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="N182" s="7" t="s">
-        <v>132</v>
+        <v>309</v>
+      </c>
+      <c r="L182" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M182" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N182" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O182" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P182" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q182" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="R182" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="S182" s="3" t="s">
-        <v>351</v>
+        <v>503</v>
+      </c>
+      <c r="Q182" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R182" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S182" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="T182" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="W182" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="X182" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="183" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="Y182" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
         <v>180</v>
       </c>
@@ -13383,10 +13343,7 @@
         <v>309</v>
       </c>
       <c r="L183" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="M183" s="15" t="s">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="N183" s="6" t="s">
         <v>109</v>
@@ -13395,31 +13352,34 @@
         <v>145</v>
       </c>
       <c r="P183" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q183" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R183" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S183" s="8" t="s">
-        <v>457</v>
+        <v>266</v>
+      </c>
+      <c r="Q183" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R183" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="S183" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="T183" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="U183" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="V183" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="W183" s="8" t="s">
-        <v>458</v>
+        <v>313</v>
       </c>
       <c r="X183" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Y183" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="184" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="s">
         <v>180</v>
       </c>
@@ -13448,49 +13408,35 @@
         <v>231</v>
       </c>
       <c r="J184" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="K184" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="L184" s="15" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="O184" s="6" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="P184" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="Q184" s="3" t="s">
-        <v>353</v>
+      <c r="Q184" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R184" s="3" t="s">
-        <v>353</v>
+        <v>457</v>
       </c>
       <c r="S184" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T184" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="U184" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="V184" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="W184" s="8" t="s">
-        <v>313</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="W184" s="3"/>
       <c r="X184" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
         <v>180</v>
       </c>
@@ -13521,11 +13467,14 @@
       <c r="J185" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="N185" s="6" t="s">
-        <v>318</v>
+      <c r="K185" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="N185" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O185" s="6" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="P185" s="6" t="s">
         <v>266</v>
@@ -13534,20 +13483,19 @@
         <v>132</v>
       </c>
       <c r="R185" s="3" t="s">
-        <v>459</v>
+        <v>379</v>
       </c>
       <c r="S185" s="3" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="T185" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="W185" s="3"/>
+        <v>320</v>
+      </c>
       <c r="X185" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
         <v>180</v>
       </c>
@@ -13579,10 +13527,13 @@
         <v>317</v>
       </c>
       <c r="K186" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N186" s="7" t="s">
-        <v>132</v>
+        <v>321</v>
+      </c>
+      <c r="L186" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N186" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="O186" s="6" t="s">
         <v>110</v>
@@ -13594,15 +13545,21 @@
         <v>132</v>
       </c>
       <c r="R186" s="3" t="s">
-        <v>379</v>
+        <v>458</v>
       </c>
       <c r="S186" s="3" t="s">
-        <v>379</v>
+        <v>458</v>
       </c>
       <c r="T186" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="X186" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="V186" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="W186" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="X186" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -13643,34 +13600,34 @@
       <c r="L187" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="M187" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="N187" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O187" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P187" s="6" t="s">
-        <v>266</v>
+        <v>503</v>
       </c>
       <c r="Q187" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R187" s="3" t="s">
-        <v>460</v>
+      <c r="R187" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="S187" s="3" t="s">
-        <v>460</v>
+        <v>355</v>
       </c>
       <c r="T187" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="V187" s="8" t="s">
-        <v>462</v>
+        <v>328</v>
       </c>
       <c r="W187" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="X187" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X187" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -13712,7 +13669,7 @@
         <v>114</v>
       </c>
       <c r="M188" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N188" s="6" t="s">
         <v>109</v>
@@ -13721,28 +13678,28 @@
         <v>145</v>
       </c>
       <c r="P188" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q188" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R188" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S188" s="3" t="s">
+      <c r="R188" s="3" t="s">
         <v>355</v>
       </c>
+      <c r="S188" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="T188" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="W188" s="8" t="s">
-        <v>149</v>
+        <v>329</v>
+      </c>
+      <c r="V188" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="X188" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
         <v>180</v>
       </c>
@@ -13777,10 +13734,7 @@
         <v>321</v>
       </c>
       <c r="L189" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="M189" s="15" t="s">
-        <v>142</v>
+        <v>322</v>
       </c>
       <c r="N189" s="6" t="s">
         <v>109</v>
@@ -13789,28 +13743,31 @@
         <v>145</v>
       </c>
       <c r="P189" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q189" s="4" t="s">
         <v>132</v>
       </c>
       <c r="R189" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="S189" s="4" t="s">
-        <v>132</v>
+        <v>356</v>
+      </c>
+      <c r="S189" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="T189" s="9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="V189" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
+      </c>
+      <c r="W189" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="X189" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="190" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
         <v>180</v>
       </c>
@@ -13845,7 +13802,7 @@
         <v>321</v>
       </c>
       <c r="L190" s="15" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N190" s="6" t="s">
         <v>109</v>
@@ -13854,97 +13811,70 @@
         <v>145</v>
       </c>
       <c r="P190" s="6" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Q190" s="4" t="s">
         <v>132</v>
       </c>
       <c r="R190" s="3" t="s">
-        <v>356</v>
+        <v>427</v>
       </c>
       <c r="S190" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T190" s="9" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="V190" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="W190" s="8" t="s">
-        <v>326</v>
+        <v>426</v>
       </c>
       <c r="X190" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="191" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="Y190" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D191" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E191" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F191" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="G191" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="H191" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="I191" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="J191" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="K191" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="L191" s="15" t="s">
-        <v>327</v>
-      </c>
       <c r="N191" s="6" t="s">
-        <v>109</v>
+        <v>360</v>
       </c>
       <c r="O191" s="6" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="P191" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q191" s="4" t="s">
-        <v>132</v>
+        <v>266</v>
+      </c>
+      <c r="Q191" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="R191" s="3" t="s">
-        <v>427</v>
+        <v>344</v>
       </c>
       <c r="S191" s="3" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="T191" s="9" t="s">
-        <v>357</v>
+        <v>461</v>
+      </c>
+      <c r="U191" s="8" t="s">
+        <v>374</v>
       </c>
       <c r="V191" s="8" t="s">
-        <v>426</v>
+        <v>465</v>
+      </c>
+      <c r="W191" s="8" t="s">
+        <v>465</v>
       </c>
       <c r="X191" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Y191" s="3" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="192" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="s">
@@ -13953,41 +13883,35 @@
       <c r="B192" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="N192" s="6" t="s">
-        <v>360</v>
+      <c r="C192" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="N192" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O192" s="6" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="P192" s="6" t="s">
         <v>266</v>
       </c>
       <c r="Q192" s="3" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="R192" s="3" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="S192" s="3" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="T192" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="U192" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="V192" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="W192" s="8" t="s">
-        <v>467</v>
-      </c>
       <c r="X192" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
         <v>180</v>
       </c>
@@ -13995,34 +13919,46 @@
         <v>359</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="N193" s="7" t="s">
-        <v>132</v>
+        <v>381</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="N193" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O193" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P193" s="6" t="s">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="R193" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="S193" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="T193" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
+      </c>
+      <c r="U193" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="V193" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="W193" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="X193" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="s">
         <v>180</v>
       </c>
@@ -14033,39 +13969,30 @@
         <v>381</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>382</v>
+        <v>114</v>
       </c>
       <c r="N194" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O194" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P194" s="6" t="s">
-        <v>383</v>
+        <v>266</v>
       </c>
       <c r="Q194" s="3" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="R194" s="3" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="S194" s="3" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="T194" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="U194" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="V194" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="W194" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="X194" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="X194" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -14082,29 +14009,41 @@
       <c r="D195" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="E195" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="N195" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O195" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P195" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q195" s="3" t="s">
-        <v>391</v>
+        <v>503</v>
+      </c>
+      <c r="Q195" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R195" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="S195" s="3" t="s">
-        <v>391</v>
+        <v>335</v>
+      </c>
+      <c r="S195" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T195" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="X195" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="U195" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="W195" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="X195" s="6" t="s">
         <v>120</v>
+      </c>
+      <c r="Y195" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="196" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -14121,7 +14060,7 @@
         <v>114</v>
       </c>
       <c r="E196" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N196" s="6" t="s">
         <v>109</v>
@@ -14130,25 +14069,22 @@
         <v>145</v>
       </c>
       <c r="P196" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q196" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R196" s="3" t="s">
+      <c r="R196" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S196" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="S196" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="T196" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="U196" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="W196" s="8" t="s">
-        <v>149</v>
+        <v>394</v>
+      </c>
+      <c r="V196" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="X196" s="6" t="s">
         <v>120</v>
@@ -14171,37 +14107,31 @@
         <v>114</v>
       </c>
       <c r="E197" s="15" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="N197" s="6" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="O197" s="6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="P197" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q197" s="4" t="s">
-        <v>132</v>
+        <v>499</v>
+      </c>
+      <c r="Q197" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="R197" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S197" s="3" t="s">
-        <v>335</v>
+      <c r="S197" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T197" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="V197" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="X197" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y197" s="3" t="s">
-        <v>201</v>
+        <v>290</v>
       </c>
     </row>
     <row r="198" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -14220,14 +14150,17 @@
       <c r="E198" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="N198" s="6" t="s">
-        <v>168</v>
+      <c r="F198" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N198" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O198" s="6" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="P198" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q198" s="3" t="s">
         <v>297</v>
@@ -14241,11 +14174,14 @@
       <c r="T198" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="X198" s="6" t="s">
+      <c r="U198" s="10"/>
+      <c r="V198" s="10"/>
+      <c r="W198" s="10"/>
+      <c r="X198" s="13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
         <v>180</v>
       </c>
@@ -14259,22 +14195,19 @@
         <v>114</v>
       </c>
       <c r="E199" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F199" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="N199" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="N199" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="O199" s="6" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="P199" s="6" t="s">
-        <v>501</v>
+        <v>266</v>
       </c>
       <c r="Q199" s="3" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="R199" s="4" t="s">
         <v>132</v>
@@ -14283,16 +14216,22 @@
         <v>132</v>
       </c>
       <c r="T199" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="U199" s="10"/>
-      <c r="V199" s="10"/>
-      <c r="W199" s="10"/>
-      <c r="X199" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="200" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="U199" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="V199" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="W199" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="X199" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
         <v>180</v>
       </c>
@@ -14308,17 +14247,23 @@
       <c r="E200" s="15" t="s">
         <v>126</v>
       </c>
+      <c r="F200" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G200" s="17"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="17"/>
+      <c r="L200" s="17"/>
+      <c r="M200" s="17"/>
       <c r="N200" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O200" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P200" s="6" t="s">
-        <v>266</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="O200" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P200" s="7"/>
       <c r="Q200" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R200" s="4" t="s">
         <v>132</v>
@@ -14327,22 +14272,22 @@
         <v>132</v>
       </c>
       <c r="T200" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="U200" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="V200" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="W200" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="X200" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="201" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="U200" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V200" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="W200" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X200" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="s">
         <v>180</v>
       </c>
@@ -14358,21 +14303,18 @@
       <c r="E201" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F201" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G201" s="17"/>
-      <c r="J201" s="17"/>
-      <c r="K201" s="17"/>
-      <c r="L201" s="17"/>
-      <c r="M201" s="17"/>
-      <c r="N201" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O201" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P201" s="7"/>
+      <c r="F201" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N201" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O201" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P201" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="Q201" s="3" t="s">
         <v>336</v>
       </c>
@@ -14383,7 +14325,7 @@
         <v>132</v>
       </c>
       <c r="T201" s="9" t="s">
-        <v>135</v>
+        <v>423</v>
       </c>
       <c r="U201" s="10" t="s">
         <v>106</v>
@@ -14417,17 +14359,20 @@
       <c r="F202" s="15" t="s">
         <v>137</v>
       </c>
+      <c r="G202" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="N202" s="7" t="s">
         <v>132</v>
       </c>
       <c r="O202" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="P202" s="6" t="s">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="Q202" s="3" t="s">
-        <v>336</v>
+        <v>454</v>
       </c>
       <c r="R202" s="4" t="s">
         <v>132</v>
@@ -14436,7 +14381,7 @@
         <v>132</v>
       </c>
       <c r="T202" s="9" t="s">
-        <v>423</v>
+        <v>139</v>
       </c>
       <c r="U202" s="10" t="s">
         <v>106</v>
@@ -14451,7 +14396,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
         <v>180</v>
       </c>
@@ -14471,7 +14416,7 @@
         <v>137</v>
       </c>
       <c r="G203" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N203" s="7" t="s">
         <v>132</v>
@@ -14480,10 +14425,10 @@
         <v>92</v>
       </c>
       <c r="P203" s="6" t="s">
-        <v>383</v>
+        <v>507</v>
       </c>
       <c r="Q203" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R203" s="4" t="s">
         <v>132</v>
@@ -14492,7 +14437,7 @@
         <v>132</v>
       </c>
       <c r="T203" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="U203" s="10" t="s">
         <v>106</v>
@@ -14507,7 +14452,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="16" t="s">
         <v>180</v>
       </c>
@@ -14518,49 +14463,34 @@
         <v>381</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E204" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F204" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G204" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N204" s="7" t="s">
-        <v>132</v>
+        <v>399</v>
+      </c>
+      <c r="N204" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="O204" s="6" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="P204" s="6" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="Q204" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="R204" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S204" s="4" t="s">
-        <v>132</v>
+        <v>384</v>
+      </c>
+      <c r="R204" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="S204" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="T204" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="U204" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V204" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="W204" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="X204" s="12" t="s">
-        <v>106</v>
+        <v>419</v>
+      </c>
+      <c r="U204" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="X204" s="6" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="205" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -14576,35 +14506,47 @@
       <c r="D205" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="N205" s="6" t="s">
-        <v>401</v>
+      <c r="E205" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="N205" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O205" s="6" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="P205" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q205" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="R205" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="S205" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="T205" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="U205" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="V205" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="W205" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="X205" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y205" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="Q205" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="R205" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="S205" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="T205" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="U205" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="X205" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="206" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
         <v>180</v>
       </c>
@@ -14615,49 +14557,34 @@
         <v>381</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="E206" s="15" t="s">
-        <v>400</v>
+        <v>224</v>
       </c>
       <c r="N206" s="7" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="O206" s="6" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="P206" s="6" t="s">
-        <v>514</v>
+        <v>266</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="R206" s="3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="S206" s="3" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="T206" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="U206" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="V206" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="W206" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="X206" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y206" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="207" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="X206" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>180</v>
       </c>
@@ -14670,32 +14597,35 @@
       <c r="D207" s="15" t="s">
         <v>224</v>
       </c>
+      <c r="E207" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="N207" s="7" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="O207" s="6" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="P207" s="6" t="s">
         <v>266</v>
       </c>
       <c r="Q207" s="3" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="R207" s="3" t="s">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="S207" s="3" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="T207" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="X207" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
         <v>180</v>
       </c>
@@ -14709,34 +14639,40 @@
         <v>224</v>
       </c>
       <c r="E208" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="N208" s="7" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+      <c r="F208" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="N208" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="O208" s="6" t="s">
-        <v>110</v>
+        <v>306</v>
       </c>
       <c r="P208" s="6" t="s">
-        <v>266</v>
+        <v>499</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="R208" s="3" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="S208" s="3" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="T208" s="9" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="X208" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="209" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="Y208" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="s">
         <v>180</v>
       </c>
@@ -14753,34 +14689,31 @@
         <v>231</v>
       </c>
       <c r="F209" s="15" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="N209" s="6" t="s">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="O209" s="6" t="s">
-        <v>306</v>
+        <v>110</v>
       </c>
       <c r="P209" s="6" t="s">
-        <v>501</v>
+        <v>266</v>
       </c>
       <c r="Q209" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="R209" s="3" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="S209" s="3" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="T209" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="X209" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="X209" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="Y209" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="210" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -14802,29 +14735,38 @@
       <c r="F210" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="G210" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="N210" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O210" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P210" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q210" s="3" t="s">
-        <v>416</v>
+        <v>503</v>
+      </c>
+      <c r="Q210" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R210" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="S210" s="3" t="s">
-        <v>391</v>
+        <v>335</v>
+      </c>
+      <c r="S210" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T210" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="X210" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="W210" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="X210" s="6" t="s">
         <v>120</v>
+      </c>
+      <c r="Y210" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="211" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -14847,7 +14789,7 @@
         <v>114</v>
       </c>
       <c r="G211" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N211" s="6" t="s">
         <v>109</v>
@@ -14856,22 +14798,25 @@
         <v>145</v>
       </c>
       <c r="P211" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q211" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R211" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q211" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="S211" s="4" t="s">
-        <v>132</v>
+      <c r="R211" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S211" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="T211" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="W211" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="U211" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="V211" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="X211" s="6" t="s">
         <v>120</v>
@@ -14880,7 +14825,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="212" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A212" s="16" t="s">
         <v>180</v>
       </c>
@@ -14900,16 +14845,16 @@
         <v>114</v>
       </c>
       <c r="G212" s="15" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="N212" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O212" s="6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="P212" s="6" t="s">
-        <v>505</v>
+        <v>266</v>
       </c>
       <c r="Q212" s="3" t="s">
         <v>335</v>
@@ -14917,26 +14862,26 @@
       <c r="R212" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S212" s="3" t="s">
-        <v>335</v>
+      <c r="S212" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T212" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="U212" s="8" t="s">
-        <v>417</v>
+        <v>286</v>
+      </c>
+      <c r="U212" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="V212" s="8" t="s">
-        <v>200</v>
+        <v>133</v>
+      </c>
+      <c r="W212" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="X212" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y212" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="213" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
         <v>180</v>
       </c>
@@ -14958,17 +14903,21 @@
       <c r="G213" s="15" t="s">
         <v>126</v>
       </c>
+      <c r="H213" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I213" s="17"/>
+      <c r="L213" s="17"/>
+      <c r="M213" s="17"/>
       <c r="N213" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O213" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P213" s="6" t="s">
-        <v>266</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="O213" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P213" s="7"/>
       <c r="Q213" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R213" s="4" t="s">
         <v>132</v>
@@ -14977,22 +14926,22 @@
         <v>132</v>
       </c>
       <c r="T213" s="9" t="s">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="U213" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="V213" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="W213" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="X213" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="214" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="V213" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="W213" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X213" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" s="16" t="s">
         <v>180</v>
       </c>
@@ -15014,19 +14963,18 @@
       <c r="G214" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="H214" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I214" s="17"/>
-      <c r="L214" s="17"/>
-      <c r="M214" s="17"/>
-      <c r="N214" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O214" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P214" s="7"/>
+      <c r="H214" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N214" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O214" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P214" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="Q214" s="3" t="s">
         <v>336</v>
       </c>
@@ -15037,7 +14985,7 @@
         <v>132</v>
       </c>
       <c r="T214" s="9" t="s">
-        <v>135</v>
+        <v>423</v>
       </c>
       <c r="U214" s="10" t="s">
         <v>106</v>
@@ -15077,17 +15025,20 @@
       <c r="H215" s="15" t="s">
         <v>137</v>
       </c>
+      <c r="I215" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="N215" s="7" t="s">
         <v>132</v>
       </c>
       <c r="O215" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="P215" s="6" t="s">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="Q215" s="3" t="s">
-        <v>336</v>
+        <v>454</v>
       </c>
       <c r="R215" s="4" t="s">
         <v>132</v>
@@ -15096,7 +15047,7 @@
         <v>132</v>
       </c>
       <c r="T215" s="9" t="s">
-        <v>423</v>
+        <v>139</v>
       </c>
       <c r="U215" s="10" t="s">
         <v>106</v>
@@ -15111,7 +15062,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="16" t="s">
         <v>180</v>
       </c>
@@ -15137,7 +15088,7 @@
         <v>137</v>
       </c>
       <c r="I216" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N216" s="7" t="s">
         <v>132</v>
@@ -15146,10 +15097,10 @@
         <v>92</v>
       </c>
       <c r="P216" s="6" t="s">
-        <v>383</v>
+        <v>507</v>
       </c>
       <c r="Q216" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R216" s="4" t="s">
         <v>132</v>
@@ -15158,7 +15109,7 @@
         <v>132</v>
       </c>
       <c r="T216" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="U216" s="10" t="s">
         <v>106</v>
@@ -15190,52 +15141,34 @@
         <v>231</v>
       </c>
       <c r="F217" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G217" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H217" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I217" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N217" s="7" t="s">
-        <v>132</v>
+        <v>304</v>
+      </c>
+      <c r="N217" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="O217" s="6" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="P217" s="6" t="s">
-        <v>509</v>
+        <v>266</v>
       </c>
       <c r="Q217" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="R217" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S217" s="4" t="s">
-        <v>132</v>
+        <v>349</v>
+      </c>
+      <c r="R217" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="S217" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="T217" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="U217" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V217" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="W217" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="X217" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="218" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="X217" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="16" t="s">
         <v>180</v>
       </c>
@@ -15254,32 +15187,35 @@
       <c r="F218" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="N218" s="6" t="s">
-        <v>305</v>
+      <c r="G218" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="N218" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O218" s="6" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="P218" s="6" t="s">
         <v>266</v>
       </c>
       <c r="Q218" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="R218" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S218" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="T218" s="9" t="s">
-        <v>418</v>
+        <v>316</v>
       </c>
       <c r="X218" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="219" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
         <v>180</v>
       </c>
@@ -15299,32 +15235,44 @@
         <v>304</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="N219" s="7" t="s">
-        <v>132</v>
+        <v>309</v>
+      </c>
+      <c r="H219" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I219" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N219" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O219" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P219" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q219" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="R219" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="S219" s="3" t="s">
-        <v>351</v>
+        <v>503</v>
+      </c>
+      <c r="Q219" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R219" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S219" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="T219" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="W219" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="X219" s="6" t="s">
         <v>120</v>
       </c>
+      <c r="Y219" s="3" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="220" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="16" t="s">
@@ -15349,10 +15297,7 @@
         <v>309</v>
       </c>
       <c r="H220" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I220" s="15" t="s">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="N220" s="6" t="s">
         <v>109</v>
@@ -15361,31 +15306,34 @@
         <v>145</v>
       </c>
       <c r="P220" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q220" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R220" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S220" s="8" t="s">
-        <v>352</v>
+        <v>511</v>
+      </c>
+      <c r="Q220" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="R220" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="S220" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="T220" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="U220" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="V220" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="W220" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X220" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Y220" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="221" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="s">
         <v>180</v>
       </c>
@@ -15402,49 +15350,35 @@
         <v>231</v>
       </c>
       <c r="F221" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G221" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="H221" s="15" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="N221" s="6" t="s">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="O221" s="6" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="P221" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q221" s="3" t="s">
-        <v>353</v>
+        <v>266</v>
+      </c>
+      <c r="Q221" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R221" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S221" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T221" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="U221" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="V221" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="W221" s="8" t="s">
-        <v>313</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="W221" s="3"/>
       <c r="X221" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="222" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" s="16" t="s">
         <v>180</v>
       </c>
@@ -15463,11 +15397,14 @@
       <c r="F222" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="N222" s="6" t="s">
-        <v>318</v>
+      <c r="G222" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="N222" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O222" s="6" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="P222" s="6" t="s">
         <v>266</v>
@@ -15476,20 +15413,19 @@
         <v>132</v>
       </c>
       <c r="R222" s="3" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="S222" s="3" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="T222" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="W222" s="3"/>
+        <v>320</v>
+      </c>
       <c r="X222" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
         <v>180</v>
       </c>
@@ -15509,10 +15445,13 @@
         <v>317</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="N223" s="7" t="s">
-        <v>132</v>
+        <v>321</v>
+      </c>
+      <c r="H223" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N223" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="O223" s="6" t="s">
         <v>110</v>
@@ -15524,15 +15463,18 @@
         <v>132</v>
       </c>
       <c r="R223" s="3" t="s">
-        <v>379</v>
+        <v>458</v>
       </c>
       <c r="S223" s="3" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="T223" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="X223" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="V223" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="X223" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -15561,31 +15503,34 @@
       <c r="H224" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="I224" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="N224" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O224" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P224" s="6" t="s">
-        <v>266</v>
+        <v>503</v>
       </c>
       <c r="Q224" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R224" s="3" t="s">
-        <v>460</v>
+      <c r="R224" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="S224" s="3" t="s">
         <v>355</v>
       </c>
       <c r="T224" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="V224" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="X224" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="W224" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="X224" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -15615,7 +15560,7 @@
         <v>114</v>
       </c>
       <c r="I225" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N225" s="6" t="s">
         <v>109</v>
@@ -15624,28 +15569,28 @@
         <v>145</v>
       </c>
       <c r="P225" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q225" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R225" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S225" s="3" t="s">
+      <c r="R225" s="3" t="s">
         <v>355</v>
       </c>
+      <c r="S225" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="T225" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="W225" s="8" t="s">
-        <v>149</v>
+        <v>329</v>
+      </c>
+      <c r="V225" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="X225" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="226" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="16" t="s">
         <v>180</v>
       </c>
@@ -15668,10 +15613,7 @@
         <v>321</v>
       </c>
       <c r="H226" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I226" s="15" t="s">
-        <v>142</v>
+        <v>322</v>
       </c>
       <c r="N226" s="6" t="s">
         <v>109</v>
@@ -15680,28 +15622,31 @@
         <v>145</v>
       </c>
       <c r="P226" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q226" s="4" t="s">
         <v>132</v>
       </c>
       <c r="R226" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="S226" s="4" t="s">
-        <v>132</v>
+        <v>356</v>
+      </c>
+      <c r="S226" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="T226" s="9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="V226" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
+      </c>
+      <c r="W226" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="X226" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="227" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="s">
         <v>180</v>
       </c>
@@ -15724,7 +15669,7 @@
         <v>321</v>
       </c>
       <c r="H227" s="15" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N227" s="6" t="s">
         <v>109</v>
@@ -15733,95 +15678,80 @@
         <v>145</v>
       </c>
       <c r="P227" s="6" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Q227" s="4" t="s">
         <v>132</v>
       </c>
       <c r="R227" s="3" t="s">
-        <v>356</v>
+        <v>427</v>
       </c>
       <c r="S227" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T227" s="9" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="V227" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="W227" s="8" t="s">
-        <v>326</v>
+        <v>426</v>
       </c>
       <c r="X227" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="228" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="Y227" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="C228" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="D228" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E228" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F228" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="G228" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="H228" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="N228" s="6" t="s">
-        <v>109</v>
+        <v>466</v>
+      </c>
+      <c r="N228" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="O228" s="6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="P228" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q228" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R228" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="S228" s="3" t="s">
-        <v>355</v>
+        <v>266</v>
+      </c>
+      <c r="Q228" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="R228" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="S228" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T228" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="V228" s="8" t="s">
-        <v>426</v>
+        <v>468</v>
+      </c>
+      <c r="U228" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="W228" s="8" t="s">
+        <v>470</v>
       </c>
       <c r="X228" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Y228" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="229" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="N229" s="7" t="s">
-        <v>225</v>
+        <v>466</v>
+      </c>
+      <c r="C229" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="N229" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="O229" s="6" t="s">
         <v>110</v>
@@ -15829,62 +15759,59 @@
       <c r="P229" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="Q229" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="R229" s="8" t="s">
-        <v>344</v>
+      <c r="Q229" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="R229" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="S229" s="4" t="s">
         <v>132</v>
       </c>
       <c r="T229" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="U229" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="W229" s="8" t="s">
-        <v>472</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="U229" s="10"/>
+      <c r="V229" s="10"/>
+      <c r="W229" s="10"/>
       <c r="X229" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C230" s="15" t="s">
         <v>104</v>
       </c>
+      <c r="D230" s="15" t="s">
+        <v>111</v>
+      </c>
       <c r="N230" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O230" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P230" s="6" t="s">
-        <v>266</v>
+        <v>500</v>
       </c>
       <c r="Q230" s="3" t="s">
-        <v>469</v>
+        <v>341</v>
       </c>
       <c r="R230" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="S230" s="4" t="s">
-        <v>132</v>
+        <v>341</v>
+      </c>
+      <c r="S230" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="T230" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="U230" s="10"/>
-      <c r="V230" s="10"/>
-      <c r="W230" s="10"/>
+        <v>472</v>
+      </c>
       <c r="X230" s="6" t="s">
         <v>120</v>
       </c>
@@ -15894,33 +15821,36 @@
         <v>180</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C231" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="N231" s="6" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="O231" s="6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="P231" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q231" s="3" t="s">
-        <v>341</v>
+        <v>196</v>
       </c>
       <c r="R231" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="S231" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="T231" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="U231" s="8" t="s">
         <v>474</v>
       </c>
       <c r="X231" s="6" t="s">
@@ -15932,7 +15862,7 @@
         <v>180</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C232" s="15" t="s">
         <v>104</v>
@@ -15940,84 +15870,81 @@
       <c r="D232" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="N232" s="6" t="s">
-        <v>146</v>
+      <c r="E232" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N232" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O232" s="6" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="P232" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q232" s="3" t="s">
         <v>196</v>
       </c>
       <c r="R232" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S232" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T232" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="U232" s="8" t="s">
-        <v>476</v>
+      <c r="U232" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="X232" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="233" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C233" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E233" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="N233" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
+      </c>
+      <c r="N233" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="O233" s="6" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="P233" s="6" t="s">
-        <v>503</v>
+        <v>266</v>
       </c>
       <c r="Q233" s="3" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="R233" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S233" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T233" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="U233" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="X233" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="X233" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C234" s="15" t="s">
         <v>104</v>
@@ -16025,29 +15952,41 @@
       <c r="D234" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="E234" s="15" t="s">
+        <v>202</v>
+      </c>
       <c r="N234" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O234" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P234" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q234" s="3" t="s">
-        <v>334</v>
+        <v>503</v>
+      </c>
+      <c r="Q234" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R234" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="S234" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
+      </c>
+      <c r="S234" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T234" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="X234" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="U234" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="W234" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="X234" s="6" t="s">
         <v>120</v>
+      </c>
+      <c r="Y234" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="235" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -16055,7 +15994,7 @@
         <v>180</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C235" s="15" t="s">
         <v>104</v>
@@ -16064,7 +16003,7 @@
         <v>114</v>
       </c>
       <c r="E235" s="15" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="N235" s="6" t="s">
         <v>109</v>
@@ -16073,7 +16012,7 @@
         <v>145</v>
       </c>
       <c r="P235" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q235" s="4" t="s">
         <v>132</v>
@@ -16085,10 +16024,10 @@
         <v>132</v>
       </c>
       <c r="T235" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="U235" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W235" s="8" t="s">
         <v>149</v>
@@ -16105,7 +16044,7 @@
         <v>180</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C236" s="15" t="s">
         <v>104</v>
@@ -16114,7 +16053,7 @@
         <v>114</v>
       </c>
       <c r="E236" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N236" s="6" t="s">
         <v>109</v>
@@ -16123,25 +16062,25 @@
         <v>145</v>
       </c>
       <c r="P236" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q236" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="R236" s="3" t="s">
+      <c r="R236" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S236" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="S236" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="T236" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="U236" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="W236" s="8" t="s">
-        <v>149</v>
+        <v>199</v>
+      </c>
+      <c r="V236" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="X236" s="6" t="s">
         <v>120</v>
@@ -16150,12 +16089,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="237" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C237" s="15" t="s">
         <v>104</v>
@@ -16164,48 +16103,48 @@
         <v>114</v>
       </c>
       <c r="E237" s="15" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="N237" s="6" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="O237" s="6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="P237" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q237" s="4" t="s">
-        <v>132</v>
+        <v>499</v>
+      </c>
+      <c r="Q237" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="R237" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S237" s="3" t="s">
-        <v>335</v>
+      <c r="S237" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T237" s="9" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="U237" s="8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="V237" s="8" t="s">
-        <v>200</v>
+        <v>133</v>
+      </c>
+      <c r="W237" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="X237" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y237" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="238" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C238" s="15" t="s">
         <v>104</v>
@@ -16216,17 +16155,20 @@
       <c r="E238" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="N238" s="6" t="s">
-        <v>168</v>
+      <c r="F238" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N238" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O238" s="6" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="P238" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q238" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="R238" s="4" t="s">
         <v>132</v>
@@ -16235,27 +16177,27 @@
         <v>132</v>
       </c>
       <c r="T238" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="U238" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="V238" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="W238" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="X238" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="239" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="U238" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V238" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="W238" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X238" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A239" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C239" s="15" t="s">
         <v>104</v>
@@ -16264,22 +16206,19 @@
         <v>114</v>
       </c>
       <c r="E239" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F239" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="N239" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="N239" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="O239" s="6" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="P239" s="6" t="s">
-        <v>501</v>
+        <v>266</v>
       </c>
       <c r="Q239" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R239" s="4" t="s">
         <v>132</v>
@@ -16288,27 +16227,27 @@
         <v>132</v>
       </c>
       <c r="T239" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="U239" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="V239" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="W239" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="X239" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="240" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+      <c r="V239" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="W239" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="X239" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C240" s="15" t="s">
         <v>104</v>
@@ -16319,17 +16258,23 @@
       <c r="E240" s="15" t="s">
         <v>126</v>
       </c>
+      <c r="F240" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G240" s="17"/>
+      <c r="J240" s="17"/>
+      <c r="K240" s="17"/>
+      <c r="L240" s="17"/>
+      <c r="M240" s="17"/>
       <c r="N240" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O240" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P240" s="6" t="s">
-        <v>266</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="O240" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P240" s="7"/>
       <c r="Q240" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R240" s="4" t="s">
         <v>132</v>
@@ -16338,27 +16283,27 @@
         <v>132</v>
       </c>
       <c r="T240" s="9" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="U240" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="V240" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="W240" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="X240" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="241" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="V240" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="W240" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X240" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C241" s="15" t="s">
         <v>104</v>
@@ -16369,21 +16314,18 @@
       <c r="E241" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F241" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G241" s="17"/>
-      <c r="J241" s="17"/>
-      <c r="K241" s="17"/>
-      <c r="L241" s="17"/>
-      <c r="M241" s="17"/>
-      <c r="N241" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O241" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P241" s="7"/>
+      <c r="F241" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N241" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O241" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P241" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="Q241" s="3" t="s">
         <v>336</v>
       </c>
@@ -16394,7 +16336,7 @@
         <v>132</v>
       </c>
       <c r="T241" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="U241" s="10" t="s">
         <v>106</v>
@@ -16414,7 +16356,7 @@
         <v>180</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C242" s="15" t="s">
         <v>104</v>
@@ -16428,17 +16370,20 @@
       <c r="F242" s="15" t="s">
         <v>137</v>
       </c>
+      <c r="G242" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="N242" s="7" t="s">
         <v>132</v>
       </c>
       <c r="O242" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="P242" s="6" t="s">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="Q242" s="3" t="s">
-        <v>336</v>
+        <v>454</v>
       </c>
       <c r="R242" s="4" t="s">
         <v>132</v>
@@ -16447,7 +16392,7 @@
         <v>132</v>
       </c>
       <c r="T242" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U242" s="10" t="s">
         <v>106</v>
@@ -16462,12 +16407,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C243" s="15" t="s">
         <v>104</v>
@@ -16482,7 +16427,7 @@
         <v>137</v>
       </c>
       <c r="G243" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N243" s="7" t="s">
         <v>132</v>
@@ -16491,10 +16436,10 @@
         <v>92</v>
       </c>
       <c r="P243" s="6" t="s">
-        <v>383</v>
+        <v>507</v>
       </c>
       <c r="Q243" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R243" s="4" t="s">
         <v>132</v>
@@ -16503,7 +16448,7 @@
         <v>132</v>
       </c>
       <c r="T243" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="U243" s="10" t="s">
         <v>106</v>
@@ -16523,7 +16468,7 @@
         <v>180</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C244" s="15" t="s">
         <v>104</v>
@@ -16532,25 +16477,19 @@
         <v>114</v>
       </c>
       <c r="E244" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F244" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G244" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N244" s="7" t="s">
-        <v>132</v>
+        <v>170</v>
+      </c>
+      <c r="N244" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="O244" s="6" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="P244" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q244" s="3" t="s">
-        <v>456</v>
+        <v>502</v>
+      </c>
+      <c r="Q244" s="8" t="s">
+        <v>335</v>
       </c>
       <c r="R244" s="4" t="s">
         <v>132</v>
@@ -16559,10 +16498,10 @@
         <v>132</v>
       </c>
       <c r="T244" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="U244" s="10" t="s">
-        <v>106</v>
+        <v>178</v>
+      </c>
+      <c r="U244" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="V244" s="10" t="s">
         <v>106</v>
@@ -16570,16 +16509,16 @@
       <c r="W244" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="X244" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="245" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="X244" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C245" s="15" t="s">
         <v>104</v>
@@ -16590,17 +16529,23 @@
       <c r="E245" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="N245" s="6" t="s">
-        <v>171</v>
+      <c r="F245" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G245" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N245" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O245" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P245" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q245" s="8" t="s">
-        <v>335</v>
+        <v>502</v>
+      </c>
+      <c r="Q245" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="R245" s="4" t="s">
         <v>132</v>
@@ -16609,27 +16554,21 @@
         <v>132</v>
       </c>
       <c r="T245" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="U245" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="V245" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="W245" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="X245" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="U245" s="10"/>
+      <c r="V245" s="10"/>
+      <c r="W245" s="10"/>
+      <c r="X245" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C246" s="15" t="s">
         <v>104</v>
@@ -16638,25 +16577,19 @@
         <v>114</v>
       </c>
       <c r="E246" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F246" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G246" s="15" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="N246" s="7" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="O246" s="6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="P246" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q246" s="3" t="s">
-        <v>339</v>
+        <v>266</v>
+      </c>
+      <c r="Q246" s="8" t="s">
+        <v>335</v>
       </c>
       <c r="R246" s="4" t="s">
         <v>132</v>
@@ -16665,21 +16598,21 @@
         <v>132</v>
       </c>
       <c r="T246" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="U246" s="10"/>
-      <c r="V246" s="10"/>
-      <c r="W246" s="10"/>
-      <c r="X246" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="247" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="U246" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="X246" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A247" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C247" s="15" t="s">
         <v>104</v>
@@ -16690,8 +16623,11 @@
       <c r="E247" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="N247" s="7" t="s">
-        <v>225</v>
+      <c r="F247" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="N247" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="O247" s="6" t="s">
         <v>110</v>
@@ -16699,8 +16635,8 @@
       <c r="P247" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="Q247" s="8" t="s">
-        <v>335</v>
+      <c r="Q247" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="R247" s="4" t="s">
         <v>132</v>
@@ -16709,21 +16645,21 @@
         <v>132</v>
       </c>
       <c r="T247" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="U247" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="X247" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="U247" s="10"/>
+      <c r="V247" s="10"/>
+      <c r="W247" s="10"/>
+      <c r="X247" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C248" s="15" t="s">
         <v>104</v>
@@ -16737,17 +16673,17 @@
       <c r="F248" s="15" t="s">
         <v>104</v>
       </c>
+      <c r="G248" s="15" t="s">
+        <v>111</v>
+      </c>
       <c r="N248" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O248" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P248" s="6" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="Q248" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R248" s="4" t="s">
         <v>132</v>
@@ -16756,21 +16692,18 @@
         <v>132</v>
       </c>
       <c r="T248" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="U248" s="10"/>
-      <c r="V248" s="10"/>
-      <c r="W248" s="10"/>
+        <v>191</v>
+      </c>
       <c r="X248" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C249" s="15" t="s">
         <v>104</v>
@@ -16785,16 +16718,19 @@
         <v>104</v>
       </c>
       <c r="G249" s="15" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="N249" s="6" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="O249" s="6" t="s">
-        <v>145</v>
+        <v>110</v>
+      </c>
+      <c r="P249" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="Q249" s="3" t="s">
-        <v>341</v>
+        <v>196</v>
       </c>
       <c r="R249" s="4" t="s">
         <v>132</v>
@@ -16803,18 +16739,21 @@
         <v>132</v>
       </c>
       <c r="T249" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="X249" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="U249" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="X249" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C250" s="15" t="s">
         <v>104</v>
@@ -16831,14 +16770,17 @@
       <c r="G250" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="N250" s="6" t="s">
-        <v>146</v>
+      <c r="H250" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N250" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O250" s="6" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="P250" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q250" s="3" t="s">
         <v>196</v>
@@ -16850,21 +16792,21 @@
         <v>132</v>
       </c>
       <c r="T250" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="U250" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="X250" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="X250" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C251" s="15" t="s">
         <v>104</v>
@@ -16879,22 +16821,19 @@
         <v>104</v>
       </c>
       <c r="G251" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H251" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="N251" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
+      </c>
+      <c r="N251" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="O251" s="6" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="P251" s="6" t="s">
-        <v>503</v>
+        <v>266</v>
       </c>
       <c r="Q251" s="3" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="R251" s="4" t="s">
         <v>132</v>
@@ -16903,21 +16842,18 @@
         <v>132</v>
       </c>
       <c r="T251" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="U251" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="X251" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="X251" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C252" s="15" t="s">
         <v>104</v>
@@ -16934,17 +16870,20 @@
       <c r="G252" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="H252" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="N252" s="6" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="O252" s="6" t="s">
         <v>110</v>
       </c>
       <c r="P252" s="6" t="s">
-        <v>266</v>
+        <v>499</v>
       </c>
       <c r="Q252" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R252" s="4" t="s">
         <v>132</v>
@@ -16953,18 +16892,21 @@
         <v>132</v>
       </c>
       <c r="T252" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="X252" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="253" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="U252" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="X252" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C253" s="15" t="s">
         <v>104</v>
@@ -16984,17 +16926,20 @@
       <c r="H253" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="N253" s="6" t="s">
-        <v>168</v>
+      <c r="I253" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="N253" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O253" s="6" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="P253" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="R253" s="4" t="s">
         <v>132</v>
@@ -17003,21 +16948,23 @@
         <v>132</v>
       </c>
       <c r="T253" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="U253" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="X253" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="254" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="U253" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="V253" s="10"/>
+      <c r="W253" s="10"/>
+      <c r="X253" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C254" s="15" t="s">
         <v>104</v>
@@ -17035,22 +16982,19 @@
         <v>114</v>
       </c>
       <c r="H254" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="I254" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="N254" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="N254" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="O254" s="6" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="P254" s="6" t="s">
-        <v>501</v>
+        <v>266</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R254" s="4" t="s">
         <v>132</v>
@@ -17059,23 +17003,21 @@
         <v>132</v>
       </c>
       <c r="T254" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="U254" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="V254" s="10"/>
-      <c r="W254" s="10"/>
-      <c r="X254" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="255" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+      <c r="X254" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C255" s="15" t="s">
         <v>104</v>
@@ -17095,17 +17037,22 @@
       <c r="H255" s="15" t="s">
         <v>126</v>
       </c>
+      <c r="I255" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J255" s="17"/>
+      <c r="K255" s="17"/>
+      <c r="L255" s="17"/>
+      <c r="M255" s="17"/>
       <c r="N255" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O255" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P255" s="6" t="s">
-        <v>266</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="O255" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P255" s="7"/>
       <c r="Q255" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R255" s="4" t="s">
         <v>132</v>
@@ -17114,21 +17061,23 @@
         <v>132</v>
       </c>
       <c r="T255" s="9" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="U255" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="X255" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="256" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="V255" s="10"/>
+      <c r="W255" s="10"/>
+      <c r="X255" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C256" s="15" t="s">
         <v>104</v>
@@ -17148,20 +17097,18 @@
       <c r="H256" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I256" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J256" s="17"/>
-      <c r="K256" s="17"/>
-      <c r="L256" s="17"/>
-      <c r="M256" s="17"/>
-      <c r="N256" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O256" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P256" s="7"/>
+      <c r="I256" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N256" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O256" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P256" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="Q256" s="3" t="s">
         <v>336</v>
       </c>
@@ -17172,7 +17119,7 @@
         <v>132</v>
       </c>
       <c r="T256" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="U256" s="10" t="s">
         <v>106</v>
@@ -17188,7 +17135,7 @@
         <v>180</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C257" s="15" t="s">
         <v>104</v>
@@ -17211,17 +17158,20 @@
       <c r="I257" s="15" t="s">
         <v>137</v>
       </c>
+      <c r="J257" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="N257" s="7" t="s">
         <v>132</v>
       </c>
       <c r="O257" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="P257" s="6" t="s">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="Q257" s="3" t="s">
-        <v>336</v>
+        <v>454</v>
       </c>
       <c r="R257" s="4" t="s">
         <v>132</v>
@@ -17230,7 +17180,7 @@
         <v>132</v>
       </c>
       <c r="T257" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U257" s="10" t="s">
         <v>106</v>
@@ -17241,12 +17191,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C258" s="15" t="s">
         <v>104</v>
@@ -17270,7 +17220,7 @@
         <v>137</v>
       </c>
       <c r="J258" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N258" s="7" t="s">
         <v>132</v>
@@ -17279,10 +17229,10 @@
         <v>92</v>
       </c>
       <c r="P258" s="6" t="s">
-        <v>383</v>
+        <v>507</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R258" s="4" t="s">
         <v>132</v>
@@ -17291,7 +17241,7 @@
         <v>132</v>
       </c>
       <c r="T258" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="U258" s="10" t="s">
         <v>106</v>
@@ -17302,65 +17252,42 @@
         <v>106</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D259" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E259" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F259" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G259" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H259" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="I259" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="J259" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N259" s="7" t="s">
-        <v>132</v>
+        <v>25</v>
+      </c>
+      <c r="N259" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O259" s="6" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="P259" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q259" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="R259" s="4" t="s">
-        <v>132</v>
+        <v>511</v>
+      </c>
+      <c r="Q259" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="R259" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="S259" s="4" t="s">
         <v>132</v>
       </c>
       <c r="T259" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="U259" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="V259" s="10"/>
-      <c r="W259" s="10"/>
-      <c r="X259" s="12" t="s">
-        <v>106</v>
+        <v>481</v>
+      </c>
+      <c r="U259" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="V259" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="X259" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -17368,7 +17295,7 @@
         <v>180</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N260" s="6" t="s">
         <v>109</v>
@@ -17377,10 +17304,10 @@
         <v>145</v>
       </c>
       <c r="P260" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q260" s="8" t="s">
-        <v>344</v>
+        <v>511</v>
+      </c>
+      <c r="Q260" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R260" s="8" t="s">
         <v>344</v>
@@ -17389,45 +17316,39 @@
         <v>132</v>
       </c>
       <c r="T260" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="U260" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="V260" s="8" t="s">
-        <v>485</v>
       </c>
       <c r="X260" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="N261" s="6" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="O261" s="6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="P261" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q261" s="4" t="s">
-        <v>132</v>
+        <v>509</v>
+      </c>
+      <c r="Q261" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="R261" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="S261" s="4" t="s">
-        <v>132</v>
+      <c r="S261" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="T261" s="9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="X261" s="6" t="s">
         <v>120</v>
@@ -17440,64 +17361,70 @@
       <c r="B262" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N262" s="6" t="s">
-        <v>146</v>
+      <c r="C262" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="N262" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O262" s="6" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="P262" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q262" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="R262" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="S262" s="8" t="s">
-        <v>344</v>
+        <v>509</v>
+      </c>
+      <c r="Q262" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="R262" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="S262" s="3" t="s">
+        <v>486</v>
       </c>
       <c r="T262" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
+      </c>
+      <c r="U262" s="8" t="s">
+        <v>489</v>
       </c>
       <c r="X262" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C263" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="N263" s="7" t="s">
-        <v>132</v>
+        <v>1</v>
+      </c>
+      <c r="N263" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="O263" s="6" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="P263" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q263" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="R263" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="S263" s="3" t="s">
-        <v>488</v>
+        <v>508</v>
+      </c>
+      <c r="Q263" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="R263" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S263" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="T263" s="9" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="U263" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="W263" s="8" t="s">
+        <v>497</v>
       </c>
       <c r="X263" s="6" t="s">
         <v>120</v>
@@ -17510,75 +17437,37 @@
       <c r="B264" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="N264" s="6" t="s">
-        <v>146</v>
+      <c r="C264" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="N264" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="O264" s="6" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="P264" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q264" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="R264" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="S264" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="T264" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="U264" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="Q264" s="8" t="s">
+      <c r="W264" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="R264" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S264" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T264" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="U264" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="W264" s="8" t="s">
-        <v>499</v>
-      </c>
       <c r="X264" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="265" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A265" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B265" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="N265" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O265" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="P265" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q265" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="R265" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S265" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="T265" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="U265" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="W265" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="X265" s="6" t="s">
         <v>120</v>
       </c>
     </row>

--- a/docs/struktuura.xlsx
+++ b/docs/struktuura.xlsx
@@ -6236,7 +6236,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>179</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>179</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>179</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
         <v>179</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>179</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="164" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
         <v>179</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" s="16" t="s">
         <v>179</v>
       </c>
@@ -18885,7 +18885,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/struktuura.xlsx
+++ b/docs/struktuura.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4615" uniqueCount="515">
   <si>
     <t>&gt; python scripts/struktuura.py dati/analyzed_tezaurs.json</t>
   </si>
@@ -2798,9 +2798,6 @@
   </si>
   <si>
     <t>Skaidroto vārdus savienojumu bloks,kas nav piesaistīts nevienai nozīmei.</t>
-  </si>
-  <si>
-    <t>Skaidrotā savienojuma tips: "Stabils savienojums", "Frazeoloģisms".</t>
   </si>
   <si>
     <t>Viens skaidrots vārdu savienojums: stabils savienojums ar vai bez nozīmes pārnesuma (Tēzaurā nav dalīts, MLVV un LLVV ir).</t>
@@ -3552,11 +3549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y261"/>
+  <dimension ref="A1:Y263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R203" sqref="R203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,7 +3575,7 @@
     <col min="15" max="15" width="20.28515625" style="6" customWidth="1"/>
     <col min="16" max="16" width="18.7109375" style="6" customWidth="1"/>
     <col min="17" max="17" width="18.85546875" style="8" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" style="8" customWidth="1"/>
     <col min="19" max="19" width="20" style="8" customWidth="1"/>
     <col min="20" max="20" width="57.85546875" style="9" customWidth="1"/>
     <col min="21" max="21" width="53.140625" style="8" bestFit="1" customWidth="1"/>
@@ -3608,10 +3605,10 @@
         <v>106</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>343</v>
@@ -3643,7 +3640,7 @@
     </row>
     <row r="2" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>186</v>
@@ -3693,7 +3690,7 @@
         <v>107</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>382</v>
@@ -3725,7 +3722,7 @@
         <v>303</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>382</v>
@@ -3810,7 +3807,7 @@
         <v>144</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>329</v>
@@ -3845,7 +3842,7 @@
         <v>109</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>331</v>
@@ -3895,7 +3892,7 @@
         <v>146</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>330</v>
@@ -4195,7 +4192,7 @@
         <v>92</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>451</v>
@@ -4242,7 +4239,7 @@
         <v>109</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>332</v>
@@ -4292,7 +4289,7 @@
         <v>174</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>334</v>
@@ -4339,7 +4336,7 @@
         <v>144</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>131</v>
@@ -4386,7 +4383,7 @@
         <v>144</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>335</v>
@@ -4436,7 +4433,7 @@
         <v>109</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>332</v>
@@ -4489,7 +4486,7 @@
         <v>144</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>336</v>
@@ -4631,7 +4628,7 @@
         <v>144</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>338</v>
@@ -4675,7 +4672,7 @@
         <v>109</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>195</v>
@@ -4722,7 +4719,7 @@
         <v>146</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>195</v>
@@ -4813,7 +4810,7 @@
         <v>144</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>131</v>
@@ -4869,7 +4866,7 @@
         <v>144</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>131</v>
@@ -4925,7 +4922,7 @@
         <v>144</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>131</v>
@@ -4981,7 +4978,7 @@
         <v>109</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>332</v>
@@ -5040,7 +5037,7 @@
         <v>174</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>334</v>
@@ -5341,7 +5338,7 @@
         <v>92</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>451</v>
@@ -5491,7 +5488,7 @@
         <v>144</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>131</v>
@@ -5550,7 +5547,7 @@
         <v>144</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>131</v>
@@ -5667,7 +5664,7 @@
         <v>303</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>407</v>
@@ -5963,7 +5960,7 @@
         <v>92</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>451</v>
@@ -6013,7 +6010,7 @@
         <v>109</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q50" s="8" t="s">
         <v>295</v>
@@ -6060,7 +6057,7 @@
         <v>174</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>334</v>
@@ -6106,7 +6103,7 @@
         <v>144</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q52" s="4" t="s">
         <v>131</v>
@@ -6156,7 +6153,7 @@
         <v>144</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>335</v>
@@ -6209,7 +6206,7 @@
         <v>109</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>332</v>
@@ -6265,7 +6262,7 @@
         <v>144</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>336</v>
@@ -6422,7 +6419,7 @@
         <v>144</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q58" s="4" t="s">
         <v>131</v>
@@ -6478,7 +6475,7 @@
         <v>109</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q59" s="4" t="s">
         <v>298</v>
@@ -6531,7 +6528,7 @@
         <v>146</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q60" s="4" t="s">
         <v>298</v>
@@ -6581,7 +6578,7 @@
         <v>144</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>131</v>
@@ -6713,7 +6710,7 @@
         <v>144</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q64" s="4" t="s">
         <v>131</v>
@@ -6763,7 +6760,7 @@
         <v>144</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q65" s="3" t="s">
         <v>350</v>
@@ -6945,7 +6942,7 @@
         <v>144</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q69" s="4" t="s">
         <v>131</v>
@@ -6989,7 +6986,7 @@
         <v>144</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q70" s="4" t="s">
         <v>131</v>
@@ -7036,7 +7033,7 @@
         <v>144</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q71" s="4" t="s">
         <v>131</v>
@@ -7086,7 +7083,7 @@
         <v>144</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q72" s="4" t="s">
         <v>131</v>
@@ -7321,7 +7318,7 @@
         <v>144</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q77" s="4" t="s">
         <v>131</v>
@@ -7377,7 +7374,7 @@
         <v>144</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q78" s="4" t="s">
         <v>131</v>
@@ -7430,7 +7427,7 @@
         <v>109</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q79" s="3" t="s">
         <v>295</v>
@@ -7480,7 +7477,7 @@
         <v>174</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q80" s="3" t="s">
         <v>295</v>
@@ -7775,7 +7772,7 @@
         <v>92</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q85" s="3" t="s">
         <v>451</v>
@@ -7828,7 +7825,7 @@
         <v>229</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q86" s="3" t="s">
         <v>381</v>
@@ -7843,7 +7840,7 @@
         <v>416</v>
       </c>
       <c r="U86" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="X86" s="6" t="s">
         <v>399</v>
@@ -7878,7 +7875,7 @@
         <v>144</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q87" s="3" t="s">
         <v>401</v>
@@ -7905,7 +7902,7 @@
         <v>105</v>
       </c>
       <c r="Y87" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -7934,7 +7931,7 @@
         <v>144</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q88" s="4" t="s">
         <v>131</v>
@@ -7984,13 +7981,13 @@
         <v>131</v>
       </c>
       <c r="R89" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="S89" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="T89" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="S89" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="T89" s="9" t="s">
-        <v>514</v>
       </c>
       <c r="X89" s="6" t="s">
         <v>119</v>
@@ -8119,7 +8116,7 @@
         <v>303</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q92" s="3" t="s">
         <v>409</v>
@@ -8225,7 +8222,7 @@
         <v>144</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q94" s="4" t="s">
         <v>131</v>
@@ -8284,7 +8281,7 @@
         <v>144</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q95" s="3" t="s">
         <v>413</v>
@@ -8613,7 +8610,7 @@
         <v>92</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>451</v>
@@ -8784,7 +8781,7 @@
         <v>144</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q103" s="4" t="s">
         <v>131</v>
@@ -8846,7 +8843,7 @@
         <v>144</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q104" s="3" t="s">
         <v>350</v>
@@ -9076,7 +9073,7 @@
         <v>144</v>
       </c>
       <c r="P108" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q108" s="4" t="s">
         <v>131</v>
@@ -9132,7 +9129,7 @@
         <v>144</v>
       </c>
       <c r="P109" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q109" s="4" t="s">
         <v>131</v>
@@ -9191,7 +9188,7 @@
         <v>144</v>
       </c>
       <c r="P110" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q110" s="4" t="s">
         <v>131</v>
@@ -9253,7 +9250,7 @@
         <v>144</v>
       </c>
       <c r="P111" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q111" s="4" t="s">
         <v>131</v>
@@ -9662,7 +9659,7 @@
         <v>92</v>
       </c>
       <c r="P119" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q119" s="3" t="s">
         <v>451</v>
@@ -9718,7 +9715,7 @@
         <v>109</v>
       </c>
       <c r="P120" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q120" s="8" t="s">
         <v>295</v>
@@ -9771,7 +9768,7 @@
         <v>174</v>
       </c>
       <c r="P121" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q121" s="3" t="s">
         <v>334</v>
@@ -9823,7 +9820,7 @@
         <v>144</v>
       </c>
       <c r="P122" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q122" s="4" t="s">
         <v>131</v>
@@ -9879,7 +9876,7 @@
         <v>144</v>
       </c>
       <c r="P123" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q123" s="3" t="s">
         <v>335</v>
@@ -9938,7 +9935,7 @@
         <v>109</v>
       </c>
       <c r="P124" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q124" s="3" t="s">
         <v>332</v>
@@ -10000,7 +9997,7 @@
         <v>144</v>
       </c>
       <c r="P125" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q125" s="3" t="s">
         <v>336</v>
@@ -10130,7 +10127,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>179</v>
       </c>
@@ -10219,7 +10216,7 @@
         <v>109</v>
       </c>
       <c r="P129" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q129" s="4" t="s">
         <v>131</v>
@@ -10275,7 +10272,7 @@
         <v>146</v>
       </c>
       <c r="P130" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q130" s="4" t="s">
         <v>131</v>
@@ -10384,7 +10381,7 @@
         <v>144</v>
       </c>
       <c r="P132" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q132" s="4" t="s">
         <v>131</v>
@@ -10443,7 +10440,7 @@
         <v>144</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q133" s="4" t="s">
         <v>131</v>
@@ -10614,7 +10611,7 @@
         <v>144</v>
       </c>
       <c r="P136" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q136" s="4" t="s">
         <v>131</v>
@@ -10676,7 +10673,7 @@
         <v>109</v>
       </c>
       <c r="P137" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q137" s="4" t="s">
         <v>298</v>
@@ -10735,7 +10732,7 @@
         <v>146</v>
       </c>
       <c r="P138" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q138" s="4" t="s">
         <v>298</v>
@@ -10791,7 +10788,7 @@
         <v>144</v>
       </c>
       <c r="P139" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q139" s="4" t="s">
         <v>131</v>
@@ -10941,7 +10938,7 @@
         <v>144</v>
       </c>
       <c r="P142" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q142" s="4" t="s">
         <v>131</v>
@@ -10997,7 +10994,7 @@
         <v>144</v>
       </c>
       <c r="P143" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q143" s="3" t="s">
         <v>350</v>
@@ -11203,7 +11200,7 @@
         <v>144</v>
       </c>
       <c r="P147" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q147" s="4" t="s">
         <v>131</v>
@@ -11253,7 +11250,7 @@
         <v>144</v>
       </c>
       <c r="P148" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q148" s="4" t="s">
         <v>131</v>
@@ -11362,7 +11359,7 @@
         <v>144</v>
       </c>
       <c r="P150" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q150" s="4" t="s">
         <v>131</v>
@@ -11627,7 +11624,7 @@
         <v>144</v>
       </c>
       <c r="P155" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q155" s="4" t="s">
         <v>131</v>
@@ -11689,7 +11686,7 @@
         <v>144</v>
       </c>
       <c r="P156" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q156" s="4" t="s">
         <v>131</v>
@@ -12015,7 +12012,7 @@
         <v>92</v>
       </c>
       <c r="P161" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q161" s="3" t="s">
         <v>451</v>
@@ -12074,7 +12071,7 @@
         <v>229</v>
       </c>
       <c r="P162" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q162" s="3" t="s">
         <v>381</v>
@@ -12089,7 +12086,7 @@
         <v>416</v>
       </c>
       <c r="U162" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="X162" s="6" t="s">
         <v>399</v>
@@ -12130,7 +12127,7 @@
         <v>144</v>
       </c>
       <c r="P163" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q163" s="3" t="s">
         <v>401</v>
@@ -12157,7 +12154,7 @@
         <v>105</v>
       </c>
       <c r="Y163" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="164" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -12192,7 +12189,7 @@
         <v>144</v>
       </c>
       <c r="P164" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q164" s="4" t="s">
         <v>131</v>
@@ -12248,13 +12245,13 @@
         <v>131</v>
       </c>
       <c r="R165" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="S165" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="T165" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="S165" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="T165" s="9" t="s">
-        <v>514</v>
       </c>
       <c r="X165" s="6" t="s">
         <v>119</v>
@@ -12401,7 +12398,7 @@
         <v>303</v>
       </c>
       <c r="P168" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q168" s="3" t="s">
         <v>409</v>
@@ -12519,7 +12516,7 @@
         <v>144</v>
       </c>
       <c r="P170" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q170" s="4" t="s">
         <v>131</v>
@@ -12584,7 +12581,7 @@
         <v>144</v>
       </c>
       <c r="P171" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q171" s="3" t="s">
         <v>332</v>
@@ -12938,7 +12935,7 @@
         <v>92</v>
       </c>
       <c r="P176" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q176" s="3" t="s">
         <v>451</v>
@@ -13127,7 +13124,7 @@
         <v>144</v>
       </c>
       <c r="P179" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q179" s="4" t="s">
         <v>131</v>
@@ -13453,7 +13450,7 @@
         <v>144</v>
       </c>
       <c r="P184" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q184" s="4" t="s">
         <v>131</v>
@@ -13521,7 +13518,7 @@
         <v>144</v>
       </c>
       <c r="P185" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q185" s="4" t="s">
         <v>131</v>
@@ -13586,7 +13583,7 @@
         <v>144</v>
       </c>
       <c r="P186" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q186" s="4" t="s">
         <v>131</v>
@@ -13654,7 +13651,7 @@
         <v>144</v>
       </c>
       <c r="P187" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q187" s="4" t="s">
         <v>131</v>
@@ -13710,10 +13707,10 @@
         <v>371</v>
       </c>
       <c r="V188" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W188" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X188" s="6" t="s">
         <v>119</v>
@@ -13748,7 +13745,7 @@
         <v>377</v>
       </c>
       <c r="T189" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="X189" s="6" t="s">
         <v>119</v>
@@ -13786,16 +13783,16 @@
         <v>381</v>
       </c>
       <c r="T190" s="9" t="s">
-        <v>459</v>
+        <v>384</v>
       </c>
       <c r="U190" s="8" t="s">
         <v>385</v>
       </c>
       <c r="V190" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="W190" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="X190" s="6" t="s">
         <v>119</v>
@@ -13862,7 +13859,7 @@
         <v>144</v>
       </c>
       <c r="P192" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q192" s="4" t="s">
         <v>131</v>
@@ -13912,7 +13909,7 @@
         <v>144</v>
       </c>
       <c r="P193" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q193" s="4" t="s">
         <v>131</v>
@@ -13959,7 +13956,7 @@
         <v>109</v>
       </c>
       <c r="P194" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q194" s="3" t="s">
         <v>295</v>
@@ -14003,7 +14000,7 @@
         <v>174</v>
       </c>
       <c r="P195" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q195" s="3" t="s">
         <v>295</v>
@@ -14268,7 +14265,7 @@
         <v>92</v>
       </c>
       <c r="P200" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q200" s="3" t="s">
         <v>451</v>
@@ -14315,7 +14312,7 @@
         <v>229</v>
       </c>
       <c r="P201" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q201" s="3" t="s">
         <v>381</v>
@@ -14330,7 +14327,7 @@
         <v>416</v>
       </c>
       <c r="U201" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="X201" s="6" t="s">
         <v>399</v>
@@ -14359,7 +14356,7 @@
         <v>144</v>
       </c>
       <c r="P202" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q202" s="3" t="s">
         <v>401</v>
@@ -14386,7 +14383,7 @@
         <v>105</v>
       </c>
       <c r="Y202" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="203" spans="1:25" ht="45" x14ac:dyDescent="0.25">
@@ -14400,28 +14397,28 @@
         <v>378</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="N203" s="7" t="s">
-        <v>225</v>
+        <v>404</v>
+      </c>
+      <c r="N203" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="O203" s="6" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="P203" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q203" s="3" t="s">
-        <v>381</v>
+        <v>498</v>
+      </c>
+      <c r="Q203" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="R203" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="S203" s="3" t="s">
-        <v>381</v>
+        <v>408</v>
+      </c>
+      <c r="S203" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="T203" s="9" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="X203" s="6" t="s">
         <v>119</v>
@@ -14438,31 +14435,28 @@
         <v>378</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>223</v>
+        <v>404</v>
       </c>
       <c r="E204" s="15" t="s">
-        <v>227</v>
+        <v>397</v>
       </c>
       <c r="N204" s="7" t="s">
         <v>131</v>
       </c>
       <c r="O204" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="P204" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q204" s="3" t="s">
-        <v>342</v>
+        <v>144</v>
+      </c>
+      <c r="Q204" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="R204" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="S204" s="3" t="s">
-        <v>342</v>
+        <v>512</v>
+      </c>
+      <c r="S204" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="T204" s="9" t="s">
-        <v>421</v>
+        <v>513</v>
       </c>
       <c r="X204" s="6" t="s">
         <v>119</v>
@@ -14481,41 +14475,32 @@
       <c r="D205" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E205" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F205" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="N205" s="6" t="s">
-        <v>304</v>
+      <c r="N205" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="O205" s="6" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="P205" s="6" t="s">
-        <v>496</v>
+        <v>265</v>
       </c>
       <c r="Q205" s="3" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="R205" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="S205" s="3" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="T205" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="X205" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Y205" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="206" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
         <v>179</v>
       </c>
@@ -14529,13 +14514,10 @@
         <v>223</v>
       </c>
       <c r="E206" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F206" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="N206" s="6" t="s">
-        <v>109</v>
+        <v>227</v>
+      </c>
+      <c r="N206" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="O206" s="6" t="s">
         <v>109</v>
@@ -14544,22 +14526,22 @@
         <v>265</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>413</v>
+        <v>342</v>
       </c>
       <c r="R206" s="3" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="S206" s="3" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="T206" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="X206" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="X206" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>179</v>
       </c>
@@ -14576,40 +14558,34 @@
         <v>230</v>
       </c>
       <c r="F207" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G207" s="15" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="N207" s="6" t="s">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="O207" s="6" t="s">
-        <v>144</v>
+        <v>303</v>
       </c>
       <c r="P207" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q207" s="4" t="s">
-        <v>131</v>
+        <v>495</v>
+      </c>
+      <c r="Q207" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="R207" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="S207" s="4" t="s">
-        <v>131</v>
+        <v>409</v>
+      </c>
+      <c r="S207" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="T207" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="W207" s="8" t="s">
-        <v>148</v>
+        <v>410</v>
       </c>
       <c r="X207" s="6" t="s">
         <v>119</v>
       </c>
       <c r="Y207" s="3" t="s">
-        <v>200</v>
+        <v>411</v>
       </c>
     </row>
     <row r="208" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -14631,44 +14607,32 @@
       <c r="F208" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G208" s="15" t="s">
-        <v>141</v>
-      </c>
       <c r="N208" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O208" s="6" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="P208" s="6" t="s">
-        <v>500</v>
+        <v>265</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="R208" s="4" t="s">
-        <v>131</v>
+        <v>413</v>
+      </c>
+      <c r="R208" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="S208" s="3" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="T208" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="U208" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="V208" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="X208" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="X208" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="Y208" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="209" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="s">
         <v>179</v>
       </c>
@@ -14688,43 +14652,40 @@
         <v>113</v>
       </c>
       <c r="G209" s="15" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="N209" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O209" s="6" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="P209" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q209" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q209" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R209" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="R209" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="S209" s="4" t="s">
         <v>131</v>
       </c>
       <c r="T209" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="U209" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="V209" s="8" t="s">
-        <v>132</v>
+        <v>412</v>
       </c>
       <c r="W209" s="8" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="X209" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="210" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="Y209" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="16" t="s">
         <v>179</v>
       </c>
@@ -14744,47 +14705,43 @@
         <v>113</v>
       </c>
       <c r="G210" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I210" s="17"/>
-      <c r="L210" s="17"/>
-      <c r="M210" s="17"/>
+        <v>141</v>
+      </c>
       <c r="N210" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="O210" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P210" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="O210" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="P210" s="6" t="s">
+        <v>499</v>
+      </c>
       <c r="Q210" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R210" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S210" s="4" t="s">
-        <v>131</v>
+      <c r="S210" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="T210" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="U210" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="V210" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="W210" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X210" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="U210" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="V210" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="X210" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y210" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="s">
         <v>179</v>
       </c>
@@ -14806,11 +14763,8 @@
       <c r="G211" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="H211" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N211" s="7" t="s">
-        <v>131</v>
+      <c r="N211" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O211" s="6" t="s">
         <v>109</v>
@@ -14819,7 +14773,7 @@
         <v>265</v>
       </c>
       <c r="Q211" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R211" s="4" t="s">
         <v>131</v>
@@ -14828,22 +14782,22 @@
         <v>131</v>
       </c>
       <c r="T211" s="9" t="s">
-        <v>420</v>
+        <v>285</v>
       </c>
       <c r="U211" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="V211" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="W211" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X211" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V211" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="W211" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="X211" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A212" s="16" t="s">
         <v>179</v>
       </c>
@@ -14865,23 +14819,21 @@
       <c r="G212" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="H212" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I212" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="N212" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="O212" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="P212" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="H212" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I212" s="17"/>
+      <c r="L212" s="17"/>
+      <c r="M212" s="17"/>
+      <c r="N212" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O212" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P212" s="7"/>
       <c r="Q212" s="3" t="s">
-        <v>451</v>
+        <v>333</v>
       </c>
       <c r="R212" s="4" t="s">
         <v>131</v>
@@ -14890,7 +14842,7 @@
         <v>131</v>
       </c>
       <c r="T212" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="U212" s="10" t="s">
         <v>105</v>
@@ -14905,7 +14857,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="213" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
         <v>179</v>
       </c>
@@ -14930,20 +14882,17 @@
       <c r="H213" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="I213" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="N213" s="7" t="s">
         <v>131</v>
       </c>
       <c r="O213" s="6" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="P213" s="6" t="s">
-        <v>504</v>
+        <v>265</v>
       </c>
       <c r="Q213" s="3" t="s">
-        <v>451</v>
+        <v>333</v>
       </c>
       <c r="R213" s="4" t="s">
         <v>131</v>
@@ -14952,7 +14901,7 @@
         <v>131</v>
       </c>
       <c r="T213" s="9" t="s">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="U213" s="10" t="s">
         <v>105</v>
@@ -14967,7 +14916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="214" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" s="16" t="s">
         <v>179</v>
       </c>
@@ -14984,34 +14933,52 @@
         <v>230</v>
       </c>
       <c r="F214" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="N214" s="6" t="s">
-        <v>302</v>
+        <v>113</v>
+      </c>
+      <c r="G214" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H214" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I214" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="N214" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="O214" s="6" t="s">
-        <v>229</v>
+        <v>92</v>
       </c>
       <c r="P214" s="6" t="s">
-        <v>265</v>
+        <v>380</v>
       </c>
       <c r="Q214" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="R214" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="S214" s="3" t="s">
-        <v>346</v>
+        <v>451</v>
+      </c>
+      <c r="R214" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S214" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="T214" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="X214" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="215" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="U214" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="V214" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="W214" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X214" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="s">
         <v>179</v>
       </c>
@@ -15028,34 +14995,49 @@
         <v>230</v>
       </c>
       <c r="F215" s="15" t="s">
-        <v>301</v>
+        <v>113</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>305</v>
+        <v>125</v>
+      </c>
+      <c r="H215" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I215" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="N215" s="7" t="s">
         <v>131</v>
       </c>
       <c r="O215" s="6" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="P215" s="6" t="s">
-        <v>265</v>
+        <v>503</v>
       </c>
       <c r="Q215" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="R215" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="S215" s="3" t="s">
-        <v>348</v>
+        <v>451</v>
+      </c>
+      <c r="R215" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S215" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="T215" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="X215" s="6" t="s">
-        <v>119</v>
+        <v>140</v>
+      </c>
+      <c r="U215" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="V215" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="W215" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X215" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="216" spans="1:25" ht="45" x14ac:dyDescent="0.25">
@@ -15077,47 +15059,32 @@
       <c r="F216" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="G216" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="H216" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I216" s="15" t="s">
-        <v>141</v>
-      </c>
       <c r="N216" s="6" t="s">
-        <v>108</v>
+        <v>302</v>
       </c>
       <c r="O216" s="6" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="P216" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q216" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="R216" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S216" s="8" t="s">
-        <v>349</v>
+        <v>265</v>
+      </c>
+      <c r="Q216" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="R216" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="S216" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="T216" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="W216" s="8" t="s">
-        <v>311</v>
+        <v>415</v>
       </c>
       <c r="X216" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Y216" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="217" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="16" t="s">
         <v>179</v>
       </c>
@@ -15137,46 +15104,34 @@
         <v>301</v>
       </c>
       <c r="G217" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="H217" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="N217" s="6" t="s">
-        <v>108</v>
+        <v>305</v>
+      </c>
+      <c r="N217" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="O217" s="6" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="P217" s="6" t="s">
-        <v>508</v>
+        <v>265</v>
       </c>
       <c r="Q217" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="R217" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="S217" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="T217" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="U217" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="V217" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="W217" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="X217" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="16" t="s">
         <v>179</v>
       </c>
@@ -15193,35 +15148,49 @@
         <v>230</v>
       </c>
       <c r="F218" s="15" t="s">
-        <v>314</v>
+        <v>301</v>
+      </c>
+      <c r="G218" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H218" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I218" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="N218" s="6" t="s">
-        <v>315</v>
+        <v>108</v>
       </c>
       <c r="O218" s="6" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="P218" s="6" t="s">
-        <v>265</v>
+        <v>499</v>
       </c>
       <c r="Q218" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R218" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="S218" s="3" t="s">
-        <v>351</v>
+      <c r="R218" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S218" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="T218" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="W218" s="3"/>
+        <v>312</v>
+      </c>
+      <c r="W218" s="8" t="s">
+        <v>311</v>
+      </c>
       <c r="X218" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y218" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
         <v>179</v>
       </c>
@@ -15238,31 +15207,43 @@
         <v>230</v>
       </c>
       <c r="F219" s="15" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="N219" s="7" t="s">
-        <v>131</v>
+        <v>306</v>
+      </c>
+      <c r="H219" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="N219" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="O219" s="6" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="P219" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q219" s="4" t="s">
-        <v>131</v>
+        <v>507</v>
+      </c>
+      <c r="Q219" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="R219" s="3" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="S219" s="3" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="T219" s="9" t="s">
-        <v>317</v>
+        <v>308</v>
+      </c>
+      <c r="U219" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="V219" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="W219" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="X219" s="6" t="s">
         <v>119</v>
@@ -15287,17 +15268,11 @@
       <c r="F220" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="G220" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="H220" s="15" t="s">
-        <v>113</v>
-      </c>
       <c r="N220" s="6" t="s">
-        <v>109</v>
+        <v>315</v>
       </c>
       <c r="O220" s="6" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="P220" s="6" t="s">
         <v>265</v>
@@ -15306,22 +15281,20 @@
         <v>131</v>
       </c>
       <c r="R220" s="3" t="s">
-        <v>455</v>
+        <v>351</v>
       </c>
       <c r="S220" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T220" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="V220" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="X220" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="W220" s="3"/>
+      <c r="X220" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="s">
         <v>179</v>
       </c>
@@ -15341,37 +15314,28 @@
         <v>314</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="H221" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I221" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="N221" s="6" t="s">
-        <v>108</v>
+        <v>316</v>
+      </c>
+      <c r="N221" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="O221" s="6" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="P221" s="6" t="s">
-        <v>500</v>
+        <v>265</v>
       </c>
       <c r="Q221" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R221" s="4" t="s">
-        <v>131</v>
+      <c r="R221" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="S221" s="3" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="T221" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="W221" s="8" t="s">
-        <v>148</v>
+        <v>317</v>
       </c>
       <c r="X221" s="6" t="s">
         <v>119</v>
@@ -15402,38 +15366,35 @@
       <c r="H222" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="I222" s="15" t="s">
-        <v>141</v>
-      </c>
       <c r="N222" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O222" s="6" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="P222" s="6" t="s">
-        <v>500</v>
+        <v>265</v>
       </c>
       <c r="Q222" s="4" t="s">
         <v>131</v>
       </c>
       <c r="R222" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="S222" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="S222" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="T222" s="9" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="V222" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="X222" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="X222" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
         <v>179</v>
       </c>
@@ -15456,7 +15417,10 @@
         <v>318</v>
       </c>
       <c r="H223" s="15" t="s">
-        <v>319</v>
+        <v>113</v>
+      </c>
+      <c r="I223" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="N223" s="6" t="s">
         <v>108</v>
@@ -15470,26 +15434,23 @@
       <c r="Q223" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R223" s="3" t="s">
-        <v>353</v>
+      <c r="R223" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="S223" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T223" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="V223" s="8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="W223" s="8" t="s">
-        <v>323</v>
+        <v>148</v>
       </c>
       <c r="X223" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="224" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="16" t="s">
         <v>179</v>
       </c>
@@ -15512,7 +15473,10 @@
         <v>318</v>
       </c>
       <c r="H224" s="15" t="s">
-        <v>324</v>
+        <v>113</v>
+      </c>
+      <c r="I224" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="N224" s="6" t="s">
         <v>108</v>
@@ -15521,181 +15485,211 @@
         <v>144</v>
       </c>
       <c r="P224" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q224" s="4" t="s">
         <v>131</v>
       </c>
       <c r="R224" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="S224" s="3" t="s">
         <v>352</v>
       </c>
+      <c r="S224" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="T224" s="9" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="V224" s="8" t="s">
-        <v>423</v>
+        <v>327</v>
       </c>
       <c r="X224" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Y224" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="225" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="N225" s="7" t="s">
-        <v>224</v>
+        <v>356</v>
+      </c>
+      <c r="C225" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D225" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E225" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F225" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="G225" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="H225" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="N225" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="O225" s="6" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="P225" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q225" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="R225" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="S225" s="4" t="s">
-        <v>131</v>
+        <v>498</v>
+      </c>
+      <c r="Q225" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R225" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="S225" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="T225" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="U225" s="8" t="s">
-        <v>468</v>
+        <v>322</v>
+      </c>
+      <c r="V225" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="W225" s="8" t="s">
-        <v>467</v>
+        <v>323</v>
       </c>
       <c r="X225" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>463</v>
+        <v>356</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>103</v>
+        <v>378</v>
+      </c>
+      <c r="D226" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E226" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F226" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="G226" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="H226" s="15" t="s">
+        <v>324</v>
       </c>
       <c r="N226" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O226" s="6" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="P226" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q226" s="3" t="s">
-        <v>464</v>
+        <v>502</v>
+      </c>
+      <c r="Q226" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="R226" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="S226" s="4" t="s">
-        <v>131</v>
+        <v>424</v>
+      </c>
+      <c r="S226" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="T226" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="U226" s="10"/>
-      <c r="V226" s="10"/>
-      <c r="W226" s="10"/>
+        <v>354</v>
+      </c>
+      <c r="V226" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="X226" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="Y226" s="3" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="227" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="C227" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D227" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="N227" s="6" t="s">
-        <v>108</v>
+        <v>462</v>
+      </c>
+      <c r="N227" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="O227" s="6" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="P227" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q227" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="R227" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="S227" s="3" t="s">
-        <v>338</v>
+        <v>265</v>
+      </c>
+      <c r="Q227" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="R227" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="S227" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="T227" s="9" t="s">
-        <v>469</v>
+        <v>464</v>
+      </c>
+      <c r="U227" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="W227" s="8" t="s">
+        <v>466</v>
       </c>
       <c r="X227" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="228" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C228" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D228" s="15" t="s">
-        <v>115</v>
-      </c>
       <c r="N228" s="6" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="O228" s="6" t="s">
         <v>109</v>
       </c>
       <c r="P228" s="6" t="s">
-        <v>498</v>
+        <v>265</v>
       </c>
       <c r="Q228" s="3" t="s">
-        <v>195</v>
+        <v>463</v>
       </c>
       <c r="R228" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="S228" s="3" t="s">
-        <v>331</v>
+        <v>463</v>
+      </c>
+      <c r="S228" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="T228" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="U228" s="8" t="s">
-        <v>471</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="U228" s="10"/>
+      <c r="V228" s="10"/>
+      <c r="W228" s="10"/>
       <c r="X228" s="6" t="s">
         <v>119</v>
       </c>
@@ -15705,69 +15699,63 @@
         <v>179</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C229" s="15" t="s">
         <v>103</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E229" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="N229" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
+      </c>
+      <c r="N229" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="O229" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P229" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q229" s="3" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="R229" s="3" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="S229" s="3" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="T229" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="U229" s="10" t="s">
-        <v>105</v>
+        <v>468</v>
       </c>
       <c r="X229" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C230" s="15" t="s">
         <v>103</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N230" s="6" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="O230" s="6" t="s">
         <v>109</v>
       </c>
       <c r="P230" s="6" t="s">
-        <v>265</v>
+        <v>497</v>
       </c>
       <c r="Q230" s="3" t="s">
-        <v>331</v>
+        <v>195</v>
       </c>
       <c r="R230" s="3" t="s">
         <v>331</v>
@@ -15776,9 +15764,12 @@
         <v>331</v>
       </c>
       <c r="T230" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="X230" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="U230" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="X230" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -15787,57 +15778,51 @@
         <v>179</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C231" s="15" t="s">
         <v>103</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E231" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="N231" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="N231" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="O231" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P231" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q231" s="4" t="s">
-        <v>131</v>
+        <v>497</v>
+      </c>
+      <c r="Q231" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="R231" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="S231" s="4" t="s">
-        <v>131</v>
+        <v>330</v>
+      </c>
+      <c r="S231" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="T231" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="U231" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="W231" s="8" t="s">
-        <v>148</v>
+        <v>471</v>
+      </c>
+      <c r="U231" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="X231" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Y231" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="232" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C232" s="15" t="s">
         <v>103</v>
@@ -15845,41 +15830,29 @@
       <c r="D232" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E232" s="15" t="s">
-        <v>147</v>
-      </c>
       <c r="N232" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O232" s="6" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="P232" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q232" s="4" t="s">
-        <v>131</v>
+        <v>265</v>
+      </c>
+      <c r="Q232" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="R232" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="S232" s="4" t="s">
-        <v>131</v>
+        <v>331</v>
+      </c>
+      <c r="S232" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="T232" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="U232" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="W232" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="X232" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="X232" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="Y232" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="233" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -15887,7 +15860,7 @@
         <v>179</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C233" s="15" t="s">
         <v>103</v>
@@ -15896,7 +15869,7 @@
         <v>113</v>
       </c>
       <c r="E233" s="15" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="N233" s="6" t="s">
         <v>108</v>
@@ -15905,25 +15878,25 @@
         <v>144</v>
       </c>
       <c r="P233" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q233" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R233" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S233" s="3" t="s">
+      <c r="R233" s="3" t="s">
         <v>332</v>
       </c>
+      <c r="S233" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="T233" s="9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="U233" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="V233" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="W233" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="X233" s="6" t="s">
         <v>119</v>
@@ -15932,12 +15905,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="234" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C234" s="15" t="s">
         <v>103</v>
@@ -15946,40 +15919,40 @@
         <v>113</v>
       </c>
       <c r="E234" s="15" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="N234" s="6" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="O234" s="6" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="P234" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q234" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q234" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R234" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="R234" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="S234" s="4" t="s">
         <v>131</v>
       </c>
       <c r="T234" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="U234" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="V234" s="8" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="W234" s="8" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="X234" s="6" t="s">
-        <v>168</v>
+        <v>119</v>
+      </c>
+      <c r="Y234" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="235" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -15987,7 +15960,7 @@
         <v>179</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C235" s="15" t="s">
         <v>103</v>
@@ -15996,51 +15969,48 @@
         <v>113</v>
       </c>
       <c r="E235" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F235" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="N235" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
+      </c>
+      <c r="N235" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="O235" s="6" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="P235" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q235" s="3" t="s">
-        <v>334</v>
+        <v>499</v>
+      </c>
+      <c r="Q235" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="R235" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S235" s="4" t="s">
-        <v>131</v>
+      <c r="S235" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="T235" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="U235" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="V235" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="W235" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X235" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="236" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="U235" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="V235" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="X235" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y235" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C236" s="15" t="s">
         <v>103</v>
@@ -16049,16 +16019,16 @@
         <v>113</v>
       </c>
       <c r="E236" s="15" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="N236" s="6" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="O236" s="6" t="s">
         <v>109</v>
       </c>
       <c r="P236" s="6" t="s">
-        <v>265</v>
+        <v>495</v>
       </c>
       <c r="Q236" s="3" t="s">
         <v>332</v>
@@ -16070,10 +16040,10 @@
         <v>131</v>
       </c>
       <c r="T236" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="U236" s="10" t="s">
-        <v>105</v>
+        <v>208</v>
+      </c>
+      <c r="U236" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="V236" s="8" t="s">
         <v>132</v>
@@ -16082,15 +16052,15 @@
         <v>133</v>
       </c>
       <c r="X236" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="237" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C237" s="15" t="s">
         <v>103</v>
@@ -16099,25 +16069,22 @@
         <v>113</v>
       </c>
       <c r="E237" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F237" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G237" s="17"/>
-      <c r="J237" s="17"/>
-      <c r="K237" s="17"/>
-      <c r="L237" s="17"/>
-      <c r="M237" s="17"/>
-      <c r="N237" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="O237" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P237" s="7"/>
+        <v>162</v>
+      </c>
+      <c r="F237" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N237" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O237" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P237" s="6" t="s">
+        <v>495</v>
+      </c>
       <c r="Q237" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R237" s="4" t="s">
         <v>131</v>
@@ -16126,7 +16093,7 @@
         <v>131</v>
       </c>
       <c r="T237" s="9" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="U237" s="10" t="s">
         <v>105</v>
@@ -16141,12 +16108,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C238" s="15" t="s">
         <v>103</v>
@@ -16157,11 +16124,8 @@
       <c r="E238" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F238" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N238" s="7" t="s">
-        <v>131</v>
+      <c r="N238" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O238" s="6" t="s">
         <v>109</v>
@@ -16170,7 +16134,7 @@
         <v>265</v>
       </c>
       <c r="Q238" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R238" s="4" t="s">
         <v>131</v>
@@ -16179,27 +16143,27 @@
         <v>131</v>
       </c>
       <c r="T238" s="9" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="U238" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="V238" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="W238" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X238" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V238" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="W238" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="X238" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C239" s="15" t="s">
         <v>103</v>
@@ -16210,23 +16174,23 @@
       <c r="E239" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F239" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G239" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="N239" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="O239" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="P239" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="F239" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G239" s="17"/>
+      <c r="J239" s="17"/>
+      <c r="K239" s="17"/>
+      <c r="L239" s="17"/>
+      <c r="M239" s="17"/>
+      <c r="N239" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O239" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P239" s="7"/>
       <c r="Q239" s="3" t="s">
-        <v>451</v>
+        <v>333</v>
       </c>
       <c r="R239" s="4" t="s">
         <v>131</v>
@@ -16235,7 +16199,7 @@
         <v>131</v>
       </c>
       <c r="T239" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="U239" s="10" t="s">
         <v>105</v>
@@ -16250,12 +16214,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="240" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C240" s="15" t="s">
         <v>103</v>
@@ -16269,20 +16233,17 @@
       <c r="F240" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G240" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="N240" s="7" t="s">
         <v>131</v>
       </c>
       <c r="O240" s="6" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="P240" s="6" t="s">
-        <v>504</v>
+        <v>265</v>
       </c>
       <c r="Q240" s="3" t="s">
-        <v>451</v>
+        <v>333</v>
       </c>
       <c r="R240" s="4" t="s">
         <v>131</v>
@@ -16291,7 +16252,7 @@
         <v>131</v>
       </c>
       <c r="T240" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="U240" s="10" t="s">
         <v>105</v>
@@ -16306,12 +16267,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C241" s="15" t="s">
         <v>103</v>
@@ -16320,19 +16281,25 @@
         <v>113</v>
       </c>
       <c r="E241" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="N241" s="6" t="s">
-        <v>170</v>
+        <v>125</v>
+      </c>
+      <c r="F241" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G241" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="N241" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="O241" s="6" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="P241" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q241" s="8" t="s">
-        <v>332</v>
+        <v>380</v>
+      </c>
+      <c r="Q241" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="R241" s="4" t="s">
         <v>131</v>
@@ -16341,10 +16308,10 @@
         <v>131</v>
       </c>
       <c r="T241" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="U241" s="11" t="s">
-        <v>176</v>
+        <v>138</v>
+      </c>
+      <c r="U241" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="V241" s="10" t="s">
         <v>105</v>
@@ -16352,16 +16319,16 @@
       <c r="W241" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="X241" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X241" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C242" s="15" t="s">
         <v>103</v>
@@ -16370,25 +16337,25 @@
         <v>113</v>
       </c>
       <c r="E242" s="15" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="F242" s="15" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="G242" s="15" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="N242" s="7" t="s">
         <v>131</v>
       </c>
       <c r="O242" s="6" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="P242" s="6" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="Q242" s="3" t="s">
-        <v>336</v>
+        <v>451</v>
       </c>
       <c r="R242" s="4" t="s">
         <v>131</v>
@@ -16397,11 +16364,17 @@
         <v>131</v>
       </c>
       <c r="T242" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="U242" s="10"/>
-      <c r="V242" s="10"/>
-      <c r="W242" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="U242" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="V242" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="W242" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="X242" s="12" t="s">
         <v>105</v>
       </c>
@@ -16411,7 +16384,7 @@
         <v>179</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C243" s="15" t="s">
         <v>103</v>
@@ -16420,16 +16393,16 @@
         <v>113</v>
       </c>
       <c r="E243" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="N243" s="7" t="s">
-        <v>224</v>
+        <v>169</v>
+      </c>
+      <c r="N243" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="O243" s="6" t="s">
         <v>109</v>
       </c>
       <c r="P243" s="6" t="s">
-        <v>265</v>
+        <v>498</v>
       </c>
       <c r="Q243" s="8" t="s">
         <v>332</v>
@@ -16441,21 +16414,27 @@
         <v>131</v>
       </c>
       <c r="T243" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="U243" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="X243" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="U243" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="V243" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="W243" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X243" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C244" s="15" t="s">
         <v>103</v>
@@ -16464,22 +16443,25 @@
         <v>113</v>
       </c>
       <c r="E244" s="15" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F244" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="N244" s="6" t="s">
-        <v>109</v>
+        <v>169</v>
+      </c>
+      <c r="G244" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="N244" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="O244" s="6" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="P244" s="6" t="s">
-        <v>265</v>
+        <v>498</v>
       </c>
       <c r="Q244" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R244" s="4" t="s">
         <v>131</v>
@@ -16488,7 +16470,7 @@
         <v>131</v>
       </c>
       <c r="T244" s="9" t="s">
-        <v>475</v>
+        <v>178</v>
       </c>
       <c r="U244" s="10"/>
       <c r="V244" s="10"/>
@@ -16497,12 +16479,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C245" s="15" t="s">
         <v>103</v>
@@ -16513,20 +16495,17 @@
       <c r="E245" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="F245" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G245" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="N245" s="6" t="s">
-        <v>108</v>
+      <c r="N245" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="O245" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q245" s="3" t="s">
-        <v>338</v>
+        <v>109</v>
+      </c>
+      <c r="P245" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q245" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="R245" s="4" t="s">
         <v>131</v>
@@ -16535,18 +16514,21 @@
         <v>131</v>
       </c>
       <c r="T245" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="X245" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="U245" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="X245" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C246" s="15" t="s">
         <v>103</v>
@@ -16560,20 +16542,17 @@
       <c r="F246" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G246" s="15" t="s">
-        <v>115</v>
-      </c>
       <c r="N246" s="6" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="O246" s="6" t="s">
         <v>109</v>
       </c>
       <c r="P246" s="6" t="s">
-        <v>498</v>
+        <v>265</v>
       </c>
       <c r="Q246" s="3" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="R246" s="4" t="s">
         <v>131</v>
@@ -16582,13 +16561,13 @@
         <v>131</v>
       </c>
       <c r="T246" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="U246" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="X246" s="6" t="s">
-        <v>192</v>
+        <v>474</v>
+      </c>
+      <c r="U246" s="10"/>
+      <c r="V246" s="10"/>
+      <c r="W246" s="10"/>
+      <c r="X246" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="247" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -16596,7 +16575,7 @@
         <v>179</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C247" s="15" t="s">
         <v>103</v>
@@ -16611,22 +16590,16 @@
         <v>103</v>
       </c>
       <c r="G247" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H247" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="N247" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
+      </c>
+      <c r="N247" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="O247" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="P247" s="6" t="s">
-        <v>498</v>
+        <v>144</v>
       </c>
       <c r="Q247" s="3" t="s">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="R247" s="4" t="s">
         <v>131</v>
@@ -16635,21 +16608,18 @@
         <v>131</v>
       </c>
       <c r="T247" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="U247" s="8" t="s">
-        <v>477</v>
+        <v>190</v>
       </c>
       <c r="X247" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C248" s="15" t="s">
         <v>103</v>
@@ -16664,19 +16634,19 @@
         <v>103</v>
       </c>
       <c r="G248" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N248" s="6" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="O248" s="6" t="s">
         <v>109</v>
       </c>
       <c r="P248" s="6" t="s">
-        <v>265</v>
+        <v>497</v>
       </c>
       <c r="Q248" s="3" t="s">
-        <v>331</v>
+        <v>195</v>
       </c>
       <c r="R248" s="4" t="s">
         <v>131</v>
@@ -16685,18 +16655,21 @@
         <v>131</v>
       </c>
       <c r="T248" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="X248" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="249" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="U248" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="X248" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C249" s="15" t="s">
         <v>103</v>
@@ -16711,22 +16684,22 @@
         <v>103</v>
       </c>
       <c r="G249" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H249" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="N249" s="6" t="s">
-        <v>167</v>
+        <v>111</v>
+      </c>
+      <c r="N249" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="O249" s="6" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="P249" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q249" s="3" t="s">
-        <v>332</v>
+        <v>195</v>
       </c>
       <c r="R249" s="4" t="s">
         <v>131</v>
@@ -16735,21 +16708,21 @@
         <v>131</v>
       </c>
       <c r="T249" s="9" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="U249" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="X249" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="X249" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A250" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C250" s="15" t="s">
         <v>103</v>
@@ -16766,23 +16739,17 @@
       <c r="G250" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H250" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I250" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="N250" s="7" t="s">
-        <v>131</v>
+      <c r="N250" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O250" s="6" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="P250" s="6" t="s">
-        <v>496</v>
+        <v>265</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="R250" s="4" t="s">
         <v>131</v>
@@ -16791,23 +16758,18 @@
         <v>131</v>
       </c>
       <c r="T250" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="U250" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="V250" s="10"/>
-      <c r="W250" s="10"/>
-      <c r="X250" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="X250" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C251" s="15" t="s">
         <v>103</v>
@@ -16825,16 +16787,16 @@
         <v>113</v>
       </c>
       <c r="H251" s="15" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="N251" s="6" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="O251" s="6" t="s">
         <v>109</v>
       </c>
       <c r="P251" s="6" t="s">
-        <v>265</v>
+        <v>495</v>
       </c>
       <c r="Q251" s="3" t="s">
         <v>332</v>
@@ -16846,21 +16808,21 @@
         <v>131</v>
       </c>
       <c r="T251" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="U251" s="10" t="s">
-        <v>105</v>
+        <v>208</v>
+      </c>
+      <c r="U251" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="X251" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C252" s="15" t="s">
         <v>103</v>
@@ -16878,24 +16840,22 @@
         <v>113</v>
       </c>
       <c r="H252" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="I252" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J252" s="17"/>
-      <c r="K252" s="17"/>
-      <c r="L252" s="17"/>
-      <c r="M252" s="17"/>
-      <c r="N252" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="O252" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P252" s="7"/>
+        <v>162</v>
+      </c>
+      <c r="I252" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N252" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O252" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P252" s="6" t="s">
+        <v>495</v>
+      </c>
       <c r="Q252" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R252" s="4" t="s">
         <v>131</v>
@@ -16904,7 +16864,7 @@
         <v>131</v>
       </c>
       <c r="T252" s="9" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="U252" s="10" t="s">
         <v>105</v>
@@ -16915,12 +16875,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" ht="90" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C253" s="15" t="s">
         <v>103</v>
@@ -16940,11 +16900,8 @@
       <c r="H253" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I253" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N253" s="7" t="s">
-        <v>131</v>
+      <c r="N253" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="O253" s="6" t="s">
         <v>109</v>
@@ -16953,7 +16910,7 @@
         <v>265</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R253" s="4" t="s">
         <v>131</v>
@@ -16962,23 +16919,21 @@
         <v>131</v>
       </c>
       <c r="T253" s="9" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="U253" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="V253" s="10"/>
-      <c r="W253" s="10"/>
-      <c r="X253" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X253" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C254" s="15" t="s">
         <v>103</v>
@@ -16998,23 +16953,22 @@
       <c r="H254" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I254" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J254" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="N254" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="O254" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="P254" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="I254" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J254" s="17"/>
+      <c r="K254" s="17"/>
+      <c r="L254" s="17"/>
+      <c r="M254" s="17"/>
+      <c r="N254" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O254" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P254" s="7"/>
       <c r="Q254" s="3" t="s">
-        <v>451</v>
+        <v>333</v>
       </c>
       <c r="R254" s="4" t="s">
         <v>131</v>
@@ -17023,7 +16977,7 @@
         <v>131</v>
       </c>
       <c r="T254" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="U254" s="10" t="s">
         <v>105</v>
@@ -17034,12 +16988,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C255" s="15" t="s">
         <v>103</v>
@@ -17062,20 +17016,17 @@
       <c r="I255" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="J255" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="N255" s="7" t="s">
         <v>131</v>
       </c>
       <c r="O255" s="6" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="P255" s="6" t="s">
-        <v>504</v>
+        <v>265</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>451</v>
+        <v>333</v>
       </c>
       <c r="R255" s="4" t="s">
         <v>131</v>
@@ -17084,7 +17035,7 @@
         <v>131</v>
       </c>
       <c r="T255" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="U255" s="10" t="s">
         <v>105</v>
@@ -17095,91 +17046,143 @@
         <v>105</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B256" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D256" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E256" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F256" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G256" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H256" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I256" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J256" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="N256" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O256" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P256" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q256" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="R256" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S256" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="T256" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="U256" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="V256" s="10"/>
+      <c r="W256" s="10"/>
+      <c r="X256" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A257" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B257" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="C257" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D257" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E257" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F257" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G257" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H257" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I257" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J257" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="N257" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O257" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P257" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q257" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="R257" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S257" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="T257" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="U257" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="V257" s="10"/>
+      <c r="W257" s="10"/>
+      <c r="X257" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A258" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B258" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N256" s="6" t="s">
+      <c r="N258" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O256" s="6" t="s">
+      <c r="O258" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="P256" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q256" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="R256" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="S256" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="T256" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="U256" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="V256" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="X256" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="257" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B257" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="N257" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O257" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="P257" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q257" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="R257" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="S257" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="T257" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="X257" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="258" spans="1:24" ht="60" x14ac:dyDescent="0.25">
-      <c r="A258" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B258" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="N258" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="O258" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="P258" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q258" s="8" t="s">
         <v>341</v>
@@ -17187,60 +17190,60 @@
       <c r="R258" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="S258" s="8" t="s">
-        <v>341</v>
+      <c r="S258" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="T258" s="9" t="s">
-        <v>485</v>
+        <v>477</v>
+      </c>
+      <c r="U258" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="V258" s="8" t="s">
+        <v>479</v>
       </c>
       <c r="X258" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="N259" s="7" t="s">
-        <v>131</v>
+        <v>51</v>
+      </c>
+      <c r="N259" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="O259" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P259" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q259" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="R259" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="S259" s="3" t="s">
-        <v>483</v>
+        <v>507</v>
+      </c>
+      <c r="Q259" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R259" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="S259" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="T259" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="U259" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="X259" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N260" s="6" t="s">
         <v>145</v>
@@ -17252,36 +17255,30 @@
         <v>505</v>
       </c>
       <c r="Q260" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="R260" s="4" t="s">
-        <v>131</v>
+        <v>341</v>
+      </c>
+      <c r="R260" s="8" t="s">
+        <v>341</v>
       </c>
       <c r="S260" s="8" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="T260" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="U260" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="W260" s="8" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="X260" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N261" s="7" t="s">
         <v>131</v>
@@ -17293,24 +17290,100 @@
         <v>505</v>
       </c>
       <c r="Q261" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="R261" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="S261" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="T261" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="U261" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="X261" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A262" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B262" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N262" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="O262" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P262" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q262" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="R262" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S262" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="T262" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="U262" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="R261" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S261" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="T261" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="U261" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="W261" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="X261" s="6" t="s">
+      <c r="W262" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="X262" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A263" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B263" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="N263" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O263" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="P263" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q263" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="R263" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S263" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="T263" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="U263" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="W263" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="X263" s="6" t="s">
         <v>119</v>
       </c>
     </row>
